--- a/raw_data/20200818_saline/20200818_Sensor1_Test_75.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor1_Test_75.xlsx
@@ -1,2487 +1,2903 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{270E2B56-1CE2-4723-B498-D3B1D1E9A12E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>66787.347289</v>
+        <v>66787.347288999998</v>
       </c>
       <c r="B2" s="1">
-        <v>18.552041</v>
+        <v>18.552040999999999</v>
       </c>
       <c r="C2" s="1">
-        <v>898.387000</v>
+        <v>898.38699999999994</v>
       </c>
       <c r="D2" s="1">
-        <v>-203.102000</v>
+        <v>-203.102</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>66797.733020</v>
+        <v>66797.73302</v>
       </c>
       <c r="G2" s="1">
-        <v>18.554926</v>
+        <v>18.554925999999998</v>
       </c>
       <c r="H2" s="1">
-        <v>917.297000</v>
+        <v>917.29700000000003</v>
       </c>
       <c r="I2" s="1">
-        <v>-171.967000</v>
+        <v>-171.96700000000001</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>66808.178301</v>
+        <v>66808.178301000007</v>
       </c>
       <c r="L2" s="1">
         <v>18.557827</v>
       </c>
       <c r="M2" s="1">
-        <v>941.390000</v>
+        <v>941.39</v>
       </c>
       <c r="N2" s="1">
-        <v>-122.203000</v>
+        <v>-122.203</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>66818.700402</v>
+        <v>66818.700402000002</v>
       </c>
       <c r="Q2" s="1">
-        <v>18.560750</v>
+        <v>18.560749999999999</v>
       </c>
       <c r="R2" s="1">
-        <v>948.413000</v>
+        <v>948.41300000000001</v>
       </c>
       <c r="S2" s="1">
-        <v>-105.510000</v>
+        <v>-105.51</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>66829.283043</v>
+        <v>66829.283043000003</v>
       </c>
       <c r="V2" s="1">
-        <v>18.563690</v>
+        <v>18.563690000000001</v>
       </c>
       <c r="W2" s="1">
-        <v>955.201000</v>
+        <v>955.20100000000002</v>
       </c>
       <c r="X2" s="1">
-        <v>-89.937400</v>
+        <v>-89.937399999999997</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>66839.719377</v>
+        <v>66839.719377000001</v>
       </c>
       <c r="AA2" s="1">
         <v>18.566589</v>
       </c>
       <c r="AB2" s="1">
-        <v>962.509000</v>
+        <v>962.50900000000001</v>
       </c>
       <c r="AC2" s="1">
-        <v>-77.839400</v>
+        <v>-77.839399999999998</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>66850.253400</v>
+        <v>66850.253400000001</v>
       </c>
       <c r="AF2" s="1">
-        <v>18.569515</v>
+        <v>18.569514999999999</v>
       </c>
       <c r="AG2" s="1">
-        <v>967.237000</v>
+        <v>967.23699999999997</v>
       </c>
       <c r="AH2" s="1">
-        <v>-75.275600</v>
+        <v>-75.275599999999997</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>66861.007658</v>
+        <v>66861.007658000002</v>
       </c>
       <c r="AK2" s="1">
         <v>18.572502</v>
       </c>
       <c r="AL2" s="1">
-        <v>973.977000</v>
+        <v>973.97699999999998</v>
       </c>
       <c r="AM2" s="1">
-        <v>-79.348600</v>
+        <v>-79.348600000000005</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>66871.577402</v>
+        <v>66871.577401999995</v>
       </c>
       <c r="AP2" s="1">
-        <v>18.575438</v>
+        <v>18.575437999999998</v>
       </c>
       <c r="AQ2" s="1">
-        <v>982.183000</v>
+        <v>982.18299999999999</v>
       </c>
       <c r="AR2" s="1">
-        <v>-90.816400</v>
+        <v>-90.816400000000002</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>66882.582140</v>
+        <v>66882.582139999999</v>
       </c>
       <c r="AU2" s="1">
         <v>18.578495</v>
       </c>
       <c r="AV2" s="1">
-        <v>992.062000</v>
+        <v>992.06200000000001</v>
       </c>
       <c r="AW2" s="1">
-        <v>-108.334000</v>
+        <v>-108.334</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>66894.045180</v>
+        <v>66894.045180000001</v>
       </c>
       <c r="AZ2" s="1">
-        <v>18.581679</v>
+        <v>18.581679000000001</v>
       </c>
       <c r="BA2" s="1">
-        <v>1000.280000</v>
+        <v>1000.28</v>
       </c>
       <c r="BB2" s="1">
-        <v>-123.852000</v>
+        <v>-123.852</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>66904.747358</v>
+        <v>66904.747357999993</v>
       </c>
       <c r="BE2" s="1">
-        <v>18.584652</v>
+        <v>18.584651999999998</v>
       </c>
       <c r="BF2" s="1">
-        <v>1038.940000</v>
+        <v>1038.94</v>
       </c>
       <c r="BG2" s="1">
-        <v>-195.317000</v>
+        <v>-195.31700000000001</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>66915.415809</v>
+        <v>66915.415808999998</v>
       </c>
       <c r="BJ2" s="1">
-        <v>18.587616</v>
+        <v>18.587616000000001</v>
       </c>
       <c r="BK2" s="1">
-        <v>1105.990000</v>
+        <v>1105.99</v>
       </c>
       <c r="BL2" s="1">
-        <v>-310.723000</v>
+        <v>-310.72300000000001</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>66926.129890</v>
+        <v>66926.129889999997</v>
       </c>
       <c r="BO2" s="1">
-        <v>18.590592</v>
+        <v>18.590592000000001</v>
       </c>
       <c r="BP2" s="1">
-        <v>1214.850000</v>
+        <v>1214.8499999999999</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-491.199000</v>
+        <v>-491.19900000000001</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>66937.382314</v>
+        <v>66937.382314000002</v>
       </c>
       <c r="BT2" s="1">
-        <v>18.593717</v>
+        <v>18.593717000000002</v>
       </c>
       <c r="BU2" s="1">
-        <v>1336.960000</v>
+        <v>1336.96</v>
       </c>
       <c r="BV2" s="1">
-        <v>-687.926000</v>
+        <v>-687.92600000000004</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>66947.941493</v>
+        <v>66947.941493000006</v>
       </c>
       <c r="BY2" s="1">
-        <v>18.596650</v>
+        <v>18.59665</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1471.870000</v>
+        <v>1471.87</v>
       </c>
       <c r="CA2" s="1">
-        <v>-896.431000</v>
+        <v>-896.43100000000004</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>66959.138150</v>
+        <v>66959.138149999999</v>
       </c>
       <c r="CD2" s="1">
-        <v>18.599761</v>
+        <v>18.599761000000001</v>
       </c>
       <c r="CE2" s="1">
-        <v>1823.830000</v>
+        <v>1823.83</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1389.910000</v>
+        <v>-1389.91</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>66787.706890</v>
+        <v>66787.706890000001</v>
       </c>
       <c r="B3" s="1">
-        <v>18.552141</v>
+        <v>18.552140999999999</v>
       </c>
       <c r="C3" s="1">
-        <v>898.508000</v>
+        <v>898.50800000000004</v>
       </c>
       <c r="D3" s="1">
-        <v>-202.832000</v>
+        <v>-202.83199999999999</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>66798.099563</v>
+        <v>66798.099562999996</v>
       </c>
       <c r="G3" s="1">
         <v>18.555028</v>
       </c>
       <c r="H3" s="1">
-        <v>917.051000</v>
+        <v>917.05100000000004</v>
       </c>
       <c r="I3" s="1">
-        <v>-171.714000</v>
+        <v>-171.714</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>66808.559199</v>
+        <v>66808.559198999996</v>
       </c>
       <c r="L3" s="1">
-        <v>18.557933</v>
+        <v>18.557932999999998</v>
       </c>
       <c r="M3" s="1">
-        <v>941.407000</v>
+        <v>941.40700000000004</v>
       </c>
       <c r="N3" s="1">
-        <v>-122.113000</v>
+        <v>-122.113</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>66819.422589</v>
+        <v>66819.422588999994</v>
       </c>
       <c r="Q3" s="1">
-        <v>18.560951</v>
+        <v>18.560950999999999</v>
       </c>
       <c r="R3" s="1">
-        <v>948.425000</v>
+        <v>948.42499999999995</v>
       </c>
       <c r="S3" s="1">
-        <v>-105.505000</v>
+        <v>-105.505</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>66829.997810</v>
+        <v>66829.997810000001</v>
       </c>
       <c r="V3" s="1">
-        <v>18.563888</v>
+        <v>18.563887999999999</v>
       </c>
       <c r="W3" s="1">
-        <v>955.310000</v>
+        <v>955.31</v>
       </c>
       <c r="X3" s="1">
-        <v>-89.955600</v>
+        <v>-89.955600000000004</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>66840.102771</v>
+        <v>66840.102771000005</v>
       </c>
       <c r="AA3" s="1">
-        <v>18.566695</v>
+        <v>18.566694999999999</v>
       </c>
       <c r="AB3" s="1">
-        <v>962.574000</v>
+        <v>962.57399999999996</v>
       </c>
       <c r="AC3" s="1">
-        <v>-77.790100</v>
+        <v>-77.790099999999995</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>66850.600639</v>
+        <v>66850.600638999997</v>
       </c>
       <c r="AF3" s="1">
-        <v>18.569611</v>
+        <v>18.569610999999998</v>
       </c>
       <c r="AG3" s="1">
-        <v>967.298000</v>
+        <v>967.298</v>
       </c>
       <c r="AH3" s="1">
-        <v>-75.319500</v>
+        <v>-75.319500000000005</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>66861.383624</v>
+        <v>66861.383623999995</v>
       </c>
       <c r="AK3" s="1">
-        <v>18.572607</v>
+        <v>18.572607000000001</v>
       </c>
       <c r="AL3" s="1">
-        <v>973.988000</v>
+        <v>973.98800000000006</v>
       </c>
       <c r="AM3" s="1">
-        <v>-79.339200</v>
+        <v>-79.339200000000005</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>66872.279243</v>
+        <v>66872.279242999997</v>
       </c>
       <c r="AP3" s="1">
         <v>18.575633</v>
       </c>
       <c r="AQ3" s="1">
-        <v>982.171000</v>
+        <v>982.17100000000005</v>
       </c>
       <c r="AR3" s="1">
-        <v>-90.807100</v>
+        <v>-90.807100000000005</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>66883.295896</v>
+        <v>66883.295895999996</v>
       </c>
       <c r="AU3" s="1">
-        <v>18.578693</v>
+        <v>18.578693000000001</v>
       </c>
       <c r="AV3" s="1">
-        <v>992.029000</v>
+        <v>992.029</v>
       </c>
       <c r="AW3" s="1">
-        <v>-108.337000</v>
+        <v>-108.337</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>66894.484172</v>
+        <v>66894.484171999997</v>
       </c>
       <c r="AZ3" s="1">
-        <v>18.581801</v>
+        <v>18.581800999999999</v>
       </c>
       <c r="BA3" s="1">
-        <v>1000.280000</v>
+        <v>1000.28</v>
       </c>
       <c r="BB3" s="1">
-        <v>-123.864000</v>
+        <v>-123.864</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>66905.107455</v>
+        <v>66905.107455000005</v>
       </c>
       <c r="BE3" s="1">
-        <v>18.584752</v>
+        <v>18.584752000000002</v>
       </c>
       <c r="BF3" s="1">
-        <v>1038.950000</v>
+        <v>1038.95</v>
       </c>
       <c r="BG3" s="1">
-        <v>-195.315000</v>
+        <v>-195.315</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>66915.792769</v>
+        <v>66915.792769000007</v>
       </c>
       <c r="BJ3" s="1">
-        <v>18.587720</v>
+        <v>18.587720000000001</v>
       </c>
       <c r="BK3" s="1">
-        <v>1105.980000</v>
+        <v>1105.98</v>
       </c>
       <c r="BL3" s="1">
-        <v>-310.764000</v>
+        <v>-310.76400000000001</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
         <v>66926.569378</v>
       </c>
       <c r="BO3" s="1">
-        <v>18.590714</v>
+        <v>18.590713999999998</v>
       </c>
       <c r="BP3" s="1">
-        <v>1214.860000</v>
+        <v>1214.8599999999999</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-491.201000</v>
+        <v>-491.20100000000002</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>66938.039858</v>
+        <v>66938.039858000004</v>
       </c>
       <c r="BT3" s="1">
-        <v>18.593900</v>
+        <v>18.593900000000001</v>
       </c>
       <c r="BU3" s="1">
-        <v>1336.940000</v>
+        <v>1336.94</v>
       </c>
       <c r="BV3" s="1">
-        <v>-687.859000</v>
+        <v>-687.85900000000004</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>66948.413691</v>
+        <v>66948.413690999994</v>
       </c>
       <c r="BY3" s="1">
-        <v>18.596782</v>
+        <v>18.596782000000001</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1471.940000</v>
+        <v>1471.94</v>
       </c>
       <c r="CA3" s="1">
-        <v>-896.458000</v>
+        <v>-896.45799999999997</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>66959.384166</v>
+        <v>66959.384166000003</v>
       </c>
       <c r="CD3" s="1">
         <v>18.599829</v>
       </c>
       <c r="CE3" s="1">
-        <v>1823.330000</v>
+        <v>1823.33</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1390.890000</v>
+        <v>-1390.89</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>66788.051609</v>
+        <v>66788.051609000002</v>
       </c>
       <c r="B4" s="1">
-        <v>18.552237</v>
+        <v>18.552237000000002</v>
       </c>
       <c r="C4" s="1">
-        <v>898.529000</v>
+        <v>898.529</v>
       </c>
       <c r="D4" s="1">
-        <v>-203.091000</v>
+        <v>-203.09100000000001</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
         <v>66798.446763</v>
       </c>
       <c r="G4" s="1">
-        <v>18.555124</v>
+        <v>18.555123999999999</v>
       </c>
       <c r="H4" s="1">
-        <v>916.493000</v>
+        <v>916.49300000000005</v>
       </c>
       <c r="I4" s="1">
-        <v>-171.934000</v>
+        <v>-171.934</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>66809.249629</v>
+        <v>66809.249628999998</v>
       </c>
       <c r="L4" s="1">
         <v>18.558125</v>
       </c>
       <c r="M4" s="1">
-        <v>941.366000</v>
+        <v>941.36599999999999</v>
       </c>
       <c r="N4" s="1">
-        <v>-122.055000</v>
+        <v>-122.05500000000001</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>66819.769775</v>
+        <v>66819.769774999993</v>
       </c>
       <c r="Q4" s="1">
-        <v>18.561047</v>
+        <v>18.561046999999999</v>
       </c>
       <c r="R4" s="1">
-        <v>948.434000</v>
+        <v>948.43399999999997</v>
       </c>
       <c r="S4" s="1">
-        <v>-105.506000</v>
+        <v>-105.506</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>66830.343489</v>
+        <v>66830.343489000006</v>
       </c>
       <c r="V4" s="1">
-        <v>18.563984</v>
+        <v>18.563984000000001</v>
       </c>
       <c r="W4" s="1">
-        <v>955.193000</v>
+        <v>955.19299999999998</v>
       </c>
       <c r="X4" s="1">
-        <v>-89.937300</v>
+        <v>-89.937299999999993</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>66840.453939</v>
+        <v>66840.453938999999</v>
       </c>
       <c r="AA4" s="1">
-        <v>18.566793</v>
+        <v>18.566793000000001</v>
       </c>
       <c r="AB4" s="1">
-        <v>962.536000</v>
+        <v>962.53599999999994</v>
       </c>
       <c r="AC4" s="1">
-        <v>-77.745100</v>
+        <v>-77.745099999999994</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>66850.951307</v>
+        <v>66850.951306999996</v>
       </c>
       <c r="AF4" s="1">
         <v>18.569709</v>
       </c>
       <c r="AG4" s="1">
-        <v>967.158000</v>
+        <v>967.15800000000002</v>
       </c>
       <c r="AH4" s="1">
-        <v>-75.283100</v>
+        <v>-75.283100000000005</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>66862.051276</v>
+        <v>66862.051275999998</v>
       </c>
       <c r="AK4" s="1">
         <v>18.572792</v>
       </c>
       <c r="AL4" s="1">
-        <v>973.955000</v>
+        <v>973.95500000000004</v>
       </c>
       <c r="AM4" s="1">
-        <v>-79.319400</v>
+        <v>-79.319400000000002</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>66872.690920</v>
+        <v>66872.690919999994</v>
       </c>
       <c r="AP4" s="1">
         <v>18.575747</v>
       </c>
       <c r="AQ4" s="1">
-        <v>982.170000</v>
+        <v>982.17</v>
       </c>
       <c r="AR4" s="1">
-        <v>-90.815700</v>
+        <v>-90.815700000000007</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>66883.715994</v>
+        <v>66883.715993999998</v>
       </c>
       <c r="AU4" s="1">
-        <v>18.578810</v>
+        <v>18.578810000000001</v>
       </c>
       <c r="AV4" s="1">
-        <v>992.026000</v>
+        <v>992.02599999999995</v>
       </c>
       <c r="AW4" s="1">
-        <v>-108.342000</v>
+        <v>-108.342</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>66894.841755</v>
+        <v>66894.841755000001</v>
       </c>
       <c r="AZ4" s="1">
-        <v>18.581900</v>
+        <v>18.581900000000001</v>
       </c>
       <c r="BA4" s="1">
-        <v>1000.280000</v>
+        <v>1000.28</v>
       </c>
       <c r="BB4" s="1">
-        <v>-123.848000</v>
+        <v>-123.848</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>66905.471023</v>
+        <v>66905.471023000006</v>
       </c>
       <c r="BE4" s="1">
-        <v>18.584853</v>
+        <v>18.584852999999999</v>
       </c>
       <c r="BF4" s="1">
-        <v>1038.950000</v>
+        <v>1038.95</v>
       </c>
       <c r="BG4" s="1">
-        <v>-195.298000</v>
+        <v>-195.298</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>66916.168736</v>
+        <v>66916.168736000007</v>
       </c>
       <c r="BJ4" s="1">
-        <v>18.587825</v>
+        <v>18.587824999999999</v>
       </c>
       <c r="BK4" s="1">
-        <v>1105.960000</v>
+        <v>1105.96</v>
       </c>
       <c r="BL4" s="1">
-        <v>-310.764000</v>
+        <v>-310.76400000000001</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>66926.987969</v>
+        <v>66926.987968999994</v>
       </c>
       <c r="BO4" s="1">
-        <v>18.590830</v>
+        <v>18.59083</v>
       </c>
       <c r="BP4" s="1">
-        <v>1214.840000</v>
+        <v>1214.8399999999999</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-491.249000</v>
+        <v>-491.24900000000002</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>66938.155892</v>
+        <v>66938.155891999995</v>
       </c>
       <c r="BT4" s="1">
-        <v>18.593932</v>
+        <v>18.593931999999999</v>
       </c>
       <c r="BU4" s="1">
-        <v>1336.990000</v>
+        <v>1336.99</v>
       </c>
       <c r="BV4" s="1">
-        <v>-687.805000</v>
+        <v>-687.80499999999995</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>66948.848644</v>
+        <v>66948.848643999998</v>
       </c>
       <c r="BY4" s="1">
         <v>18.596902</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1471.960000</v>
+        <v>1471.96</v>
       </c>
       <c r="CA4" s="1">
-        <v>-896.405000</v>
+        <v>-896.40499999999997</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>66959.919845</v>
+        <v>66959.919844999997</v>
       </c>
       <c r="CD4" s="1">
         <v>18.599978</v>
       </c>
       <c r="CE4" s="1">
-        <v>1823.420000</v>
+        <v>1823.42</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1389.230000</v>
+        <v>-1389.23</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>66788.733610</v>
+        <v>66788.733609999996</v>
       </c>
       <c r="B5" s="1">
-        <v>18.552426</v>
+        <v>18.552426000000001</v>
       </c>
       <c r="C5" s="1">
-        <v>898.622000</v>
+        <v>898.62199999999996</v>
       </c>
       <c r="D5" s="1">
-        <v>-202.941000</v>
+        <v>-202.941</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>66799.134220</v>
+        <v>66799.134220000007</v>
       </c>
       <c r="G5" s="1">
         <v>18.555315</v>
       </c>
       <c r="H5" s="1">
-        <v>917.216000</v>
+        <v>917.21600000000001</v>
       </c>
       <c r="I5" s="1">
-        <v>-172.295000</v>
+        <v>-172.29499999999999</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>66809.595340</v>
+        <v>66809.59534</v>
       </c>
       <c r="L5" s="1">
         <v>18.558221</v>
       </c>
       <c r="M5" s="1">
-        <v>941.513000</v>
+        <v>941.51300000000003</v>
       </c>
       <c r="N5" s="1">
-        <v>-122.226000</v>
+        <v>-122.226</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>66820.117507</v>
+        <v>66820.117507000003</v>
       </c>
       <c r="Q5" s="1">
-        <v>18.561144</v>
+        <v>18.561143999999999</v>
       </c>
       <c r="R5" s="1">
-        <v>948.417000</v>
+        <v>948.41700000000003</v>
       </c>
       <c r="S5" s="1">
-        <v>-105.519000</v>
+        <v>-105.51900000000001</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>66830.684736</v>
+        <v>66830.684735999996</v>
       </c>
       <c r="V5" s="1">
         <v>18.564079</v>
       </c>
       <c r="W5" s="1">
-        <v>955.240000</v>
+        <v>955.24</v>
       </c>
       <c r="X5" s="1">
-        <v>-90.064400</v>
+        <v>-90.064400000000006</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>66841.110680</v>
+        <v>66841.110679999998</v>
       </c>
       <c r="AA5" s="1">
-        <v>18.566975</v>
+        <v>18.566974999999999</v>
       </c>
       <c r="AB5" s="1">
-        <v>962.517000</v>
+        <v>962.51700000000005</v>
       </c>
       <c r="AC5" s="1">
-        <v>-77.849000</v>
+        <v>-77.849000000000004</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>66851.601524</v>
+        <v>66851.601523999998</v>
       </c>
       <c r="AF5" s="1">
         <v>18.569889</v>
       </c>
       <c r="AG5" s="1">
-        <v>967.263000</v>
+        <v>967.26300000000003</v>
       </c>
       <c r="AH5" s="1">
-        <v>-75.215500</v>
+        <v>-75.215500000000006</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>66862.428236</v>
+        <v>66862.428236000007</v>
       </c>
       <c r="AK5" s="1">
-        <v>18.572897</v>
+        <v>18.572897000000001</v>
       </c>
       <c r="AL5" s="1">
-        <v>973.944000</v>
+        <v>973.94399999999996</v>
       </c>
       <c r="AM5" s="1">
-        <v>-79.316700</v>
+        <v>-79.316699999999997</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>66873.048538</v>
+        <v>66873.048538000003</v>
       </c>
       <c r="AP5" s="1">
         <v>18.575847</v>
       </c>
       <c r="AQ5" s="1">
-        <v>982.168000</v>
+        <v>982.16800000000001</v>
       </c>
       <c r="AR5" s="1">
-        <v>-90.826500</v>
+        <v>-90.826499999999996</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>66884.097455</v>
+        <v>66884.097454999996</v>
       </c>
       <c r="AU5" s="1">
         <v>18.578916</v>
       </c>
       <c r="AV5" s="1">
-        <v>992.061000</v>
+        <v>992.06100000000004</v>
       </c>
       <c r="AW5" s="1">
-        <v>-108.361000</v>
+        <v>-108.361</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>66895.201387</v>
+        <v>66895.201386999994</v>
       </c>
       <c r="AZ5" s="1">
-        <v>18.582000</v>
+        <v>18.582000000000001</v>
       </c>
       <c r="BA5" s="1">
-        <v>1000.260000</v>
+        <v>1000.26</v>
       </c>
       <c r="BB5" s="1">
-        <v>-123.858000</v>
+        <v>-123.858</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>66905.897581</v>
+        <v>66905.897580999997</v>
       </c>
       <c r="BE5" s="1">
         <v>18.584972</v>
       </c>
       <c r="BF5" s="1">
-        <v>1038.960000</v>
+        <v>1038.96</v>
       </c>
       <c r="BG5" s="1">
-        <v>-195.324000</v>
+        <v>-195.32400000000001</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>66916.591824</v>
+        <v>66916.591824000003</v>
       </c>
       <c r="BJ5" s="1">
-        <v>18.587942</v>
+        <v>18.587942000000002</v>
       </c>
       <c r="BK5" s="1">
-        <v>1105.980000</v>
+        <v>1105.98</v>
       </c>
       <c r="BL5" s="1">
-        <v>-310.730000</v>
+        <v>-310.73</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>66927.390721</v>
+        <v>66927.390721000003</v>
       </c>
       <c r="BO5" s="1">
-        <v>18.590942</v>
+        <v>18.590941999999998</v>
       </c>
       <c r="BP5" s="1">
-        <v>1214.890000</v>
+        <v>1214.8900000000001</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-491.203000</v>
+        <v>-491.20299999999997</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>66938.591409</v>
+        <v>66938.591409000001</v>
       </c>
       <c r="BT5" s="1">
-        <v>18.594053</v>
+        <v>18.594052999999999</v>
       </c>
       <c r="BU5" s="1">
-        <v>1336.900000</v>
+        <v>1336.9</v>
       </c>
       <c r="BV5" s="1">
-        <v>-687.789000</v>
+        <v>-687.78899999999999</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>66949.269289</v>
+        <v>66949.269289000003</v>
       </c>
       <c r="BY5" s="1">
         <v>18.597019</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1471.950000</v>
+        <v>1471.95</v>
       </c>
       <c r="CA5" s="1">
-        <v>-896.438000</v>
+        <v>-896.43799999999999</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>66960.461476</v>
+        <v>66960.461475999997</v>
       </c>
       <c r="CD5" s="1">
-        <v>18.600128</v>
+        <v>18.600128000000002</v>
       </c>
       <c r="CE5" s="1">
-        <v>1822.640000</v>
+        <v>1822.64</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1390.730000</v>
+        <v>-1390.73</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>66789.084777</v>
+        <v>66789.084776999996</v>
       </c>
       <c r="B6" s="1">
-        <v>18.552524</v>
+        <v>18.552523999999998</v>
       </c>
       <c r="C6" s="1">
-        <v>898.499000</v>
+        <v>898.49900000000002</v>
       </c>
       <c r="D6" s="1">
-        <v>-202.998000</v>
+        <v>-202.99799999999999</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>66799.483898</v>
+        <v>66799.483898000006</v>
       </c>
       <c r="G6" s="1">
         <v>18.555412</v>
       </c>
       <c r="H6" s="1">
-        <v>917.093000</v>
+        <v>917.09299999999996</v>
       </c>
       <c r="I6" s="1">
-        <v>-171.603000</v>
+        <v>-171.60300000000001</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>66809.943036</v>
+        <v>66809.943035999997</v>
       </c>
       <c r="L6" s="1">
         <v>18.558318</v>
       </c>
       <c r="M6" s="1">
-        <v>941.327000</v>
+        <v>941.327</v>
       </c>
       <c r="N6" s="1">
-        <v>-122.250000</v>
+        <v>-122.25</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>66820.784589</v>
+        <v>66820.784589000003</v>
       </c>
       <c r="Q6" s="1">
-        <v>18.561329</v>
+        <v>18.561329000000001</v>
       </c>
       <c r="R6" s="1">
-        <v>948.387000</v>
+        <v>948.38699999999994</v>
       </c>
       <c r="S6" s="1">
-        <v>-105.540000</v>
+        <v>-105.54</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>66831.343423</v>
+        <v>66831.343422999998</v>
       </c>
       <c r="V6" s="1">
-        <v>18.564262</v>
+        <v>18.564261999999999</v>
       </c>
       <c r="W6" s="1">
-        <v>955.253000</v>
+        <v>955.25300000000004</v>
       </c>
       <c r="X6" s="1">
-        <v>-90.134200</v>
+        <v>-90.134200000000007</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>66841.498018</v>
+        <v>66841.498017999998</v>
       </c>
       <c r="AA6" s="1">
         <v>18.567083</v>
       </c>
       <c r="AB6" s="1">
-        <v>962.555000</v>
+        <v>962.55499999999995</v>
       </c>
       <c r="AC6" s="1">
-        <v>-77.796900</v>
+        <v>-77.796899999999994</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>66851.977988</v>
+        <v>66851.977987999999</v>
       </c>
       <c r="AF6" s="1">
-        <v>18.569994</v>
+        <v>18.569994000000001</v>
       </c>
       <c r="AG6" s="1">
-        <v>967.028000</v>
+        <v>967.02800000000002</v>
       </c>
       <c r="AH6" s="1">
-        <v>-75.253100</v>
+        <v>-75.253100000000003</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>66862.778870</v>
+        <v>66862.778869999995</v>
       </c>
       <c r="AK6" s="1">
-        <v>18.572994</v>
+        <v>18.572994000000001</v>
       </c>
       <c r="AL6" s="1">
-        <v>973.940000</v>
+        <v>973.94</v>
       </c>
       <c r="AM6" s="1">
-        <v>-79.348600</v>
+        <v>-79.348600000000005</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>66873.410615</v>
+        <v>66873.410615000001</v>
       </c>
       <c r="AP6" s="1">
-        <v>18.575947</v>
+        <v>18.575946999999999</v>
       </c>
       <c r="AQ6" s="1">
-        <v>982.167000</v>
+        <v>982.16700000000003</v>
       </c>
       <c r="AR6" s="1">
-        <v>-90.802400</v>
+        <v>-90.802400000000006</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>66884.460986</v>
+        <v>66884.460986000006</v>
       </c>
       <c r="AU6" s="1">
         <v>18.579017</v>
       </c>
       <c r="AV6" s="1">
-        <v>992.055000</v>
+        <v>992.05499999999995</v>
       </c>
       <c r="AW6" s="1">
-        <v>-108.356000</v>
+        <v>-108.35599999999999</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>66895.627419</v>
+        <v>66895.627418999997</v>
       </c>
       <c r="AZ6" s="1">
-        <v>18.582119</v>
+        <v>18.582118999999999</v>
       </c>
       <c r="BA6" s="1">
-        <v>1000.270000</v>
+        <v>1000.27</v>
       </c>
       <c r="BB6" s="1">
-        <v>-123.844000</v>
+        <v>-123.84399999999999</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>66906.191213</v>
+        <v>66906.191212999998</v>
       </c>
       <c r="BE6" s="1">
-        <v>18.585053</v>
+        <v>18.585052999999998</v>
       </c>
       <c r="BF6" s="1">
-        <v>1038.950000</v>
+        <v>1038.95</v>
       </c>
       <c r="BG6" s="1">
-        <v>-195.298000</v>
+        <v>-195.298</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>66916.942494</v>
+        <v>66916.942494000003</v>
       </c>
       <c r="BJ6" s="1">
-        <v>18.588040</v>
+        <v>18.588039999999999</v>
       </c>
       <c r="BK6" s="1">
-        <v>1105.980000</v>
+        <v>1105.98</v>
       </c>
       <c r="BL6" s="1">
-        <v>-310.743000</v>
+        <v>-310.74299999999999</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>66927.785536</v>
+        <v>66927.785535999996</v>
       </c>
       <c r="BO6" s="1">
-        <v>18.591052</v>
+        <v>18.591052000000001</v>
       </c>
       <c r="BP6" s="1">
-        <v>1214.860000</v>
+        <v>1214.8599999999999</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-491.231000</v>
+        <v>-491.23099999999999</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>66939.003553</v>
+        <v>66939.003553000002</v>
       </c>
       <c r="BT6" s="1">
         <v>18.594168</v>
       </c>
       <c r="BU6" s="1">
-        <v>1336.900000</v>
+        <v>1336.9</v>
       </c>
       <c r="BV6" s="1">
-        <v>-687.735000</v>
+        <v>-687.73500000000001</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>66949.690356</v>
+        <v>66949.690356000006</v>
       </c>
       <c r="BY6" s="1">
-        <v>18.597136</v>
+        <v>18.597135999999999</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1471.910000</v>
+        <v>1471.91</v>
       </c>
       <c r="CA6" s="1">
-        <v>-896.367000</v>
+        <v>-896.36699999999996</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>66960.999636</v>
+        <v>66960.999635999993</v>
       </c>
       <c r="CD6" s="1">
-        <v>18.600278</v>
+        <v>18.600277999999999</v>
       </c>
       <c r="CE6" s="1">
-        <v>1823.710000</v>
+        <v>1823.71</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1389.920000</v>
+        <v>-1389.92</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>66789.427016</v>
+        <v>66789.427016000001</v>
       </c>
       <c r="B7" s="1">
         <v>18.552619</v>
       </c>
       <c r="C7" s="1">
-        <v>898.399000</v>
+        <v>898.399</v>
       </c>
       <c r="D7" s="1">
-        <v>-203.020000</v>
+        <v>-203.02</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>66799.826138</v>
+        <v>66799.826138000004</v>
       </c>
       <c r="G7" s="1">
-        <v>18.555507</v>
+        <v>18.555506999999999</v>
       </c>
       <c r="H7" s="1">
-        <v>917.064000</v>
+        <v>917.06399999999996</v>
       </c>
       <c r="I7" s="1">
-        <v>-172.328000</v>
+        <v>-172.328</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>66810.605195</v>
+        <v>66810.605194999996</v>
       </c>
       <c r="L7" s="1">
         <v>18.558501</v>
       </c>
       <c r="M7" s="1">
-        <v>941.413000</v>
+        <v>941.41300000000001</v>
       </c>
       <c r="N7" s="1">
-        <v>-122.077000</v>
+        <v>-122.077</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>66821.167005</v>
+        <v>66821.167004999996</v>
       </c>
       <c r="Q7" s="1">
-        <v>18.561435</v>
+        <v>18.561434999999999</v>
       </c>
       <c r="R7" s="1">
-        <v>948.390000</v>
+        <v>948.39</v>
       </c>
       <c r="S7" s="1">
-        <v>-105.472000</v>
+        <v>-105.47199999999999</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>66831.714959</v>
+        <v>66831.714959000004</v>
       </c>
       <c r="V7" s="1">
-        <v>18.564365</v>
+        <v>18.564364999999999</v>
       </c>
       <c r="W7" s="1">
-        <v>955.192000</v>
+        <v>955.19200000000001</v>
       </c>
       <c r="X7" s="1">
-        <v>-89.889800</v>
+        <v>-89.889799999999994</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>66841.847234</v>
+        <v>66841.847234000001</v>
       </c>
       <c r="AA7" s="1">
-        <v>18.567180</v>
+        <v>18.56718</v>
       </c>
       <c r="AB7" s="1">
-        <v>962.574000</v>
+        <v>962.57399999999996</v>
       </c>
       <c r="AC7" s="1">
-        <v>-77.774700</v>
+        <v>-77.774699999999996</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>66852.320228</v>
+        <v>66852.320227999997</v>
       </c>
       <c r="AF7" s="1">
-        <v>18.570089</v>
+        <v>18.570088999999999</v>
       </c>
       <c r="AG7" s="1">
-        <v>966.936000</v>
+        <v>966.93600000000004</v>
       </c>
       <c r="AH7" s="1">
-        <v>-75.004800</v>
+        <v>-75.004800000000003</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>66863.128054</v>
+        <v>66863.128054000001</v>
       </c>
       <c r="AK7" s="1">
-        <v>18.573091</v>
+        <v>18.573091000000002</v>
       </c>
       <c r="AL7" s="1">
-        <v>973.967000</v>
+        <v>973.96699999999998</v>
       </c>
       <c r="AM7" s="1">
-        <v>-79.347300</v>
+        <v>-79.347300000000004</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>66873.828745</v>
+        <v>66873.828745000006</v>
       </c>
       <c r="AP7" s="1">
-        <v>18.576064</v>
+        <v>18.576063999999999</v>
       </c>
       <c r="AQ7" s="1">
-        <v>982.169000</v>
+        <v>982.16899999999998</v>
       </c>
       <c r="AR7" s="1">
-        <v>-90.812100</v>
+        <v>-90.812100000000001</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>66884.883116</v>
+        <v>66884.883115999997</v>
       </c>
       <c r="AU7" s="1">
         <v>18.579134</v>
       </c>
       <c r="AV7" s="1">
-        <v>992.050000</v>
+        <v>992.05</v>
       </c>
       <c r="AW7" s="1">
-        <v>-108.335000</v>
+        <v>-108.33499999999999</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>66895.919374</v>
+        <v>66895.919374000005</v>
       </c>
       <c r="AZ7" s="1">
-        <v>18.582200</v>
+        <v>18.5822</v>
       </c>
       <c r="BA7" s="1">
-        <v>1000.280000</v>
+        <v>1000.28</v>
       </c>
       <c r="BB7" s="1">
-        <v>-123.862000</v>
+        <v>-123.86199999999999</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>66906.554815</v>
+        <v>66906.554814999996</v>
       </c>
       <c r="BE7" s="1">
-        <v>18.585154</v>
+        <v>18.585153999999999</v>
       </c>
       <c r="BF7" s="1">
-        <v>1038.950000</v>
+        <v>1038.95</v>
       </c>
       <c r="BG7" s="1">
-        <v>-195.311000</v>
+        <v>-195.31100000000001</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>66917.319492</v>
+        <v>66917.319491999995</v>
       </c>
       <c r="BJ7" s="1">
         <v>18.588144</v>
       </c>
       <c r="BK7" s="1">
-        <v>1106.000000</v>
+        <v>1106</v>
       </c>
       <c r="BL7" s="1">
-        <v>-310.760000</v>
+        <v>-310.76</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>66928.206639</v>
+        <v>66928.206638999996</v>
       </c>
       <c r="BO7" s="1">
-        <v>18.591169</v>
+        <v>18.591169000000001</v>
       </c>
       <c r="BP7" s="1">
-        <v>1214.840000</v>
+        <v>1214.8399999999999</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-491.255000</v>
+        <v>-491.255</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>66939.420690</v>
+        <v>66939.420689999999</v>
       </c>
       <c r="BT7" s="1">
-        <v>18.594284</v>
+        <v>18.594283999999998</v>
       </c>
       <c r="BU7" s="1">
-        <v>1336.910000</v>
+        <v>1336.91</v>
       </c>
       <c r="BV7" s="1">
-        <v>-687.692000</v>
+        <v>-687.69200000000001</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>66950.116455</v>
+        <v>66950.116454999996</v>
       </c>
       <c r="BY7" s="1">
-        <v>18.597255</v>
+        <v>18.597255000000001</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1471.780000</v>
+        <v>1471.78</v>
       </c>
       <c r="CA7" s="1">
-        <v>-896.400000</v>
+        <v>-896.4</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>66961.538824</v>
+        <v>66961.538824000003</v>
       </c>
       <c r="CD7" s="1">
         <v>18.600427</v>
       </c>
       <c r="CE7" s="1">
-        <v>1822.440000</v>
+        <v>1822.44</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1389.690000</v>
+        <v>-1389.69</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>66790.091192</v>
+        <v>66790.091192000007</v>
       </c>
       <c r="B8" s="1">
-        <v>18.552803</v>
+        <v>18.552803000000001</v>
       </c>
       <c r="C8" s="1">
-        <v>898.484000</v>
+        <v>898.48400000000004</v>
       </c>
       <c r="D8" s="1">
-        <v>-202.967000</v>
+        <v>-202.96700000000001</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>66800.601384</v>
+        <v>66800.601383999994</v>
       </c>
       <c r="G8" s="1">
         <v>18.555723</v>
       </c>
       <c r="H8" s="1">
-        <v>916.730000</v>
+        <v>916.73</v>
       </c>
       <c r="I8" s="1">
-        <v>-171.967000</v>
+        <v>-171.96700000000001</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>66810.976920</v>
+        <v>66810.976920000001</v>
       </c>
       <c r="L8" s="1">
         <v>18.558605</v>
       </c>
       <c r="M8" s="1">
-        <v>941.322000</v>
+        <v>941.322</v>
       </c>
       <c r="N8" s="1">
-        <v>-122.099000</v>
+        <v>-122.099</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>66821.514732</v>
+        <v>66821.514731999996</v>
       </c>
       <c r="Q8" s="1">
         <v>18.561532</v>
       </c>
       <c r="R8" s="1">
-        <v>948.431000</v>
+        <v>948.43100000000004</v>
       </c>
       <c r="S8" s="1">
-        <v>-105.481000</v>
+        <v>-105.48099999999999</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>66832.055219</v>
+        <v>66832.055219000002</v>
       </c>
       <c r="V8" s="1">
-        <v>18.564460</v>
+        <v>18.56446</v>
       </c>
       <c r="W8" s="1">
-        <v>955.185000</v>
+        <v>955.18499999999995</v>
       </c>
       <c r="X8" s="1">
-        <v>-90.076000</v>
+        <v>-90.075999999999993</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>66842.195395</v>
+        <v>66842.195395000002</v>
       </c>
       <c r="AA8" s="1">
         <v>18.567276</v>
       </c>
       <c r="AB8" s="1">
-        <v>962.475000</v>
+        <v>962.47500000000002</v>
       </c>
       <c r="AC8" s="1">
-        <v>-77.785500</v>
+        <v>-77.785499999999999</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>66852.665444</v>
+        <v>66852.665443999998</v>
       </c>
       <c r="AF8" s="1">
-        <v>18.570185</v>
+        <v>18.570184999999999</v>
       </c>
       <c r="AG8" s="1">
-        <v>966.462000</v>
+        <v>966.46199999999999</v>
       </c>
       <c r="AH8" s="1">
-        <v>-74.570100</v>
+        <v>-74.570099999999996</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>66863.543703</v>
+        <v>66863.543703000003</v>
       </c>
       <c r="AK8" s="1">
         <v>18.573207</v>
       </c>
       <c r="AL8" s="1">
-        <v>973.953000</v>
+        <v>973.95299999999997</v>
       </c>
       <c r="AM8" s="1">
-        <v>-79.316700</v>
+        <v>-79.316699999999997</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>66874.127831</v>
+        <v>66874.127831000005</v>
       </c>
       <c r="AP8" s="1">
-        <v>18.576147</v>
+        <v>18.576146999999999</v>
       </c>
       <c r="AQ8" s="1">
-        <v>982.178000</v>
+        <v>982.178</v>
       </c>
       <c r="AR8" s="1">
-        <v>-90.810200</v>
+        <v>-90.810199999999995</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>66885.193123</v>
+        <v>66885.193123000005</v>
       </c>
       <c r="AU8" s="1">
-        <v>18.579220</v>
+        <v>18.579219999999999</v>
       </c>
       <c r="AV8" s="1">
-        <v>992.049000</v>
+        <v>992.04899999999998</v>
       </c>
       <c r="AW8" s="1">
-        <v>-108.326000</v>
+        <v>-108.32599999999999</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>66896.273211</v>
+        <v>66896.273211000007</v>
       </c>
       <c r="AZ8" s="1">
-        <v>18.582298</v>
+        <v>18.582298000000002</v>
       </c>
       <c r="BA8" s="1">
-        <v>1000.260000</v>
+        <v>1000.26</v>
       </c>
       <c r="BB8" s="1">
-        <v>-123.835000</v>
+        <v>-123.83499999999999</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>66906.914876</v>
+        <v>66906.914875999995</v>
       </c>
       <c r="BE8" s="1">
-        <v>18.585254</v>
+        <v>18.585253999999999</v>
       </c>
       <c r="BF8" s="1">
-        <v>1038.950000</v>
+        <v>1038.95</v>
       </c>
       <c r="BG8" s="1">
-        <v>-195.303000</v>
+        <v>-195.303</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>66917.690958</v>
+        <v>66917.690958000007</v>
       </c>
       <c r="BJ8" s="1">
-        <v>18.588247</v>
+        <v>18.588246999999999</v>
       </c>
       <c r="BK8" s="1">
-        <v>1105.970000</v>
+        <v>1105.97</v>
       </c>
       <c r="BL8" s="1">
-        <v>-310.773000</v>
+        <v>-310.77300000000002</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>66928.616335</v>
+        <v>66928.616334999999</v>
       </c>
       <c r="BO8" s="1">
         <v>18.591282</v>
       </c>
       <c r="BP8" s="1">
-        <v>1214.850000</v>
+        <v>1214.8499999999999</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-491.227000</v>
+        <v>-491.22699999999998</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>66939.833856</v>
+        <v>66939.833855999997</v>
       </c>
       <c r="BT8" s="1">
-        <v>18.594398</v>
+        <v>18.594398000000002</v>
       </c>
       <c r="BU8" s="1">
-        <v>1336.850000</v>
+        <v>1336.85</v>
       </c>
       <c r="BV8" s="1">
-        <v>-687.701000</v>
+        <v>-687.70100000000002</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>66950.564506</v>
+        <v>66950.564505999995</v>
       </c>
       <c r="BY8" s="1">
         <v>18.597379</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1471.920000</v>
+        <v>1471.92</v>
       </c>
       <c r="CA8" s="1">
-        <v>-896.562000</v>
+        <v>-896.56200000000001</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>66962.079426</v>
+        <v>66962.079425999997</v>
       </c>
       <c r="CD8" s="1">
-        <v>18.600578</v>
+        <v>18.600577999999999</v>
       </c>
       <c r="CE8" s="1">
-        <v>1823.440000</v>
+        <v>1823.44</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1390.640000</v>
+        <v>-1390.64</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>66790.453238</v>
+        <v>66790.453238000002</v>
       </c>
       <c r="B9" s="1">
-        <v>18.552904</v>
+        <v>18.552904000000002</v>
       </c>
       <c r="C9" s="1">
-        <v>898.479000</v>
+        <v>898.47900000000004</v>
       </c>
       <c r="D9" s="1">
-        <v>-203.121000</v>
+        <v>-203.12100000000001</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>66800.861785</v>
+        <v>66800.861785000001</v>
       </c>
       <c r="G9" s="1">
         <v>18.555795</v>
       </c>
       <c r="H9" s="1">
-        <v>916.706000</v>
+        <v>916.70600000000002</v>
       </c>
       <c r="I9" s="1">
-        <v>-172.145000</v>
+        <v>-172.14500000000001</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>66811.325386</v>
+        <v>66811.325385999997</v>
       </c>
       <c r="L9" s="1">
-        <v>18.558701</v>
+        <v>18.558700999999999</v>
       </c>
       <c r="M9" s="1">
-        <v>941.424000</v>
+        <v>941.42399999999998</v>
       </c>
       <c r="N9" s="1">
-        <v>-122.168000</v>
+        <v>-122.16800000000001</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>66821.864381</v>
+        <v>66821.864381000007</v>
       </c>
       <c r="Q9" s="1">
         <v>18.561629</v>
       </c>
       <c r="R9" s="1">
-        <v>948.433000</v>
+        <v>948.43299999999999</v>
       </c>
       <c r="S9" s="1">
-        <v>-105.524000</v>
+        <v>-105.524</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>66832.404397</v>
+        <v>66832.404397000006</v>
       </c>
       <c r="V9" s="1">
-        <v>18.564557</v>
+        <v>18.564557000000001</v>
       </c>
       <c r="W9" s="1">
-        <v>955.216000</v>
+        <v>955.21600000000001</v>
       </c>
       <c r="X9" s="1">
-        <v>-89.983100</v>
+        <v>-89.983099999999993</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>66842.629890</v>
+        <v>66842.629889999997</v>
       </c>
       <c r="AA9" s="1">
         <v>18.567397</v>
       </c>
       <c r="AB9" s="1">
-        <v>962.490000</v>
+        <v>962.49</v>
       </c>
       <c r="AC9" s="1">
-        <v>-77.839300</v>
+        <v>-77.839299999999994</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>66853.353394</v>
+        <v>66853.353394000005</v>
       </c>
       <c r="AF9" s="1">
         <v>18.570376</v>
       </c>
       <c r="AG9" s="1">
-        <v>966.443000</v>
+        <v>966.44299999999998</v>
       </c>
       <c r="AH9" s="1">
-        <v>-74.531600</v>
+        <v>-74.531599999999997</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>66863.827941</v>
+        <v>66863.827940999996</v>
       </c>
       <c r="AK9" s="1">
         <v>18.573286</v>
       </c>
       <c r="AL9" s="1">
-        <v>973.993000</v>
+        <v>973.99300000000005</v>
       </c>
       <c r="AM9" s="1">
-        <v>-79.329400</v>
+        <v>-79.329400000000007</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>66874.489911</v>
+        <v>66874.489910999997</v>
       </c>
       <c r="AP9" s="1">
-        <v>18.576247</v>
+        <v>18.576246999999999</v>
       </c>
       <c r="AQ9" s="1">
-        <v>982.181000</v>
+        <v>982.18100000000004</v>
       </c>
       <c r="AR9" s="1">
-        <v>-90.809800</v>
+        <v>-90.809799999999996</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>66885.556648</v>
+        <v>66885.556647999998</v>
       </c>
       <c r="AU9" s="1">
         <v>18.579321</v>
       </c>
       <c r="AV9" s="1">
-        <v>992.043000</v>
+        <v>992.04300000000001</v>
       </c>
       <c r="AW9" s="1">
-        <v>-108.348000</v>
+        <v>-108.348</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>66896.636061</v>
+        <v>66896.636060999997</v>
       </c>
       <c r="AZ9" s="1">
-        <v>18.582399</v>
+        <v>18.582398999999999</v>
       </c>
       <c r="BA9" s="1">
-        <v>1000.270000</v>
+        <v>1000.27</v>
       </c>
       <c r="BB9" s="1">
-        <v>-123.849000</v>
+        <v>-123.849</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>66907.637547</v>
+        <v>66907.637547000006</v>
       </c>
       <c r="BE9" s="1">
         <v>18.585455</v>
       </c>
       <c r="BF9" s="1">
-        <v>1038.930000</v>
+        <v>1038.93</v>
       </c>
       <c r="BG9" s="1">
-        <v>-195.296000</v>
+        <v>-195.29599999999999</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>66918.465212</v>
+        <v>66918.465211999996</v>
       </c>
       <c r="BJ9" s="1">
-        <v>18.588463</v>
+        <v>18.588463000000001</v>
       </c>
       <c r="BK9" s="1">
-        <v>1105.990000</v>
+        <v>1105.99</v>
       </c>
       <c r="BL9" s="1">
-        <v>-310.736000</v>
+        <v>-310.73599999999999</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>66929.023551</v>
+        <v>66929.023551000006</v>
       </c>
       <c r="BO9" s="1">
-        <v>18.591395</v>
+        <v>18.591394999999999</v>
       </c>
       <c r="BP9" s="1">
-        <v>1214.850000</v>
+        <v>1214.8499999999999</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-491.210000</v>
+        <v>-491.21</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
         <v>66940.249505</v>
@@ -2490,724 +2906,724 @@
         <v>18.594514</v>
       </c>
       <c r="BU9" s="1">
-        <v>1336.820000</v>
+        <v>1336.82</v>
       </c>
       <c r="BV9" s="1">
-        <v>-687.695000</v>
+        <v>-687.69500000000005</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>66950.996856</v>
+        <v>66950.996855999998</v>
       </c>
       <c r="BY9" s="1">
-        <v>18.597499</v>
+        <v>18.597498999999999</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1471.880000</v>
+        <v>1471.88</v>
       </c>
       <c r="CA9" s="1">
-        <v>-896.422000</v>
+        <v>-896.42200000000003</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>66962.928114</v>
+        <v>66962.928113999995</v>
       </c>
       <c r="CD9" s="1">
-        <v>18.600813</v>
+        <v>18.600812999999999</v>
       </c>
       <c r="CE9" s="1">
-        <v>1822.250000</v>
+        <v>1822.25</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1390.020000</v>
+        <v>-1390.02</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>66790.795477</v>
+        <v>66790.795477000007</v>
       </c>
       <c r="B10" s="1">
         <v>18.552999</v>
       </c>
       <c r="C10" s="1">
-        <v>898.376000</v>
+        <v>898.37599999999998</v>
       </c>
       <c r="D10" s="1">
-        <v>-203.042000</v>
+        <v>-203.042</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>66801.202075</v>
+        <v>66801.202074999994</v>
       </c>
       <c r="G10" s="1">
-        <v>18.555889</v>
+        <v>18.555889000000001</v>
       </c>
       <c r="H10" s="1">
-        <v>917.048000</v>
+        <v>917.048</v>
       </c>
       <c r="I10" s="1">
-        <v>-172.008000</v>
+        <v>-172.00800000000001</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>66811.670602</v>
+        <v>66811.670601999998</v>
       </c>
       <c r="L10" s="1">
-        <v>18.558797</v>
+        <v>18.558796999999998</v>
       </c>
       <c r="M10" s="1">
-        <v>941.284000</v>
+        <v>941.28399999999999</v>
       </c>
       <c r="N10" s="1">
-        <v>-122.180000</v>
+        <v>-122.18</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>66822.284493</v>
+        <v>66822.284492999999</v>
       </c>
       <c r="Q10" s="1">
-        <v>18.561746</v>
+        <v>18.561745999999999</v>
       </c>
       <c r="R10" s="1">
-        <v>948.421000</v>
+        <v>948.42100000000005</v>
       </c>
       <c r="S10" s="1">
-        <v>-105.526000</v>
+        <v>-105.526</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>66832.821007</v>
+        <v>66832.821007000006</v>
       </c>
       <c r="V10" s="1">
-        <v>18.564673</v>
+        <v>18.564672999999999</v>
       </c>
       <c r="W10" s="1">
-        <v>955.228000</v>
+        <v>955.22799999999995</v>
       </c>
       <c r="X10" s="1">
-        <v>-90.074900</v>
+        <v>-90.0749</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>66842.898752</v>
+        <v>66842.898751999994</v>
       </c>
       <c r="AA10" s="1">
-        <v>18.567472</v>
+        <v>18.567471999999999</v>
       </c>
       <c r="AB10" s="1">
-        <v>962.551000</v>
+        <v>962.55100000000004</v>
       </c>
       <c r="AC10" s="1">
-        <v>-77.754200</v>
+        <v>-77.754199999999997</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>66853.696627</v>
+        <v>66853.696626999998</v>
       </c>
       <c r="AF10" s="1">
-        <v>18.570471</v>
+        <v>18.570471000000001</v>
       </c>
       <c r="AG10" s="1">
-        <v>966.371000</v>
+        <v>966.37099999999998</v>
       </c>
       <c r="AH10" s="1">
-        <v>-74.518800</v>
+        <v>-74.518799999999999</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>66864.176136</v>
+        <v>66864.176135999995</v>
       </c>
       <c r="AK10" s="1">
-        <v>18.573382</v>
+        <v>18.573381999999999</v>
       </c>
       <c r="AL10" s="1">
-        <v>973.981000</v>
+        <v>973.98099999999999</v>
       </c>
       <c r="AM10" s="1">
-        <v>-79.332200</v>
+        <v>-79.3322</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>66874.850998</v>
+        <v>66874.850997999994</v>
       </c>
       <c r="AP10" s="1">
-        <v>18.576347</v>
+        <v>18.576346999999998</v>
       </c>
       <c r="AQ10" s="1">
-        <v>982.157000</v>
+        <v>982.15700000000004</v>
       </c>
       <c r="AR10" s="1">
-        <v>-90.816200</v>
+        <v>-90.816199999999995</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>66885.922695</v>
+        <v>66885.922695000001</v>
       </c>
       <c r="AU10" s="1">
-        <v>18.579423</v>
+        <v>18.579422999999998</v>
       </c>
       <c r="AV10" s="1">
-        <v>992.037000</v>
+        <v>992.03700000000003</v>
       </c>
       <c r="AW10" s="1">
-        <v>-108.356000</v>
+        <v>-108.35599999999999</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>66897.360968</v>
+        <v>66897.360967999994</v>
       </c>
       <c r="AZ10" s="1">
-        <v>18.582600</v>
+        <v>18.582599999999999</v>
       </c>
       <c r="BA10" s="1">
-        <v>1000.260000</v>
+        <v>1000.26</v>
       </c>
       <c r="BB10" s="1">
-        <v>-123.853000</v>
+        <v>-123.85299999999999</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>66907.996156</v>
+        <v>66907.996155999994</v>
       </c>
       <c r="BE10" s="1">
-        <v>18.585554</v>
+        <v>18.585553999999998</v>
       </c>
       <c r="BF10" s="1">
-        <v>1038.950000</v>
+        <v>1038.95</v>
       </c>
       <c r="BG10" s="1">
-        <v>-195.302000</v>
+        <v>-195.30199999999999</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
         <v>66918.841709</v>
       </c>
       <c r="BJ10" s="1">
-        <v>18.588567</v>
+        <v>18.588567000000001</v>
       </c>
       <c r="BK10" s="1">
-        <v>1105.970000</v>
+        <v>1105.97</v>
       </c>
       <c r="BL10" s="1">
-        <v>-310.724000</v>
+        <v>-310.72399999999999</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>66929.420846</v>
+        <v>66929.420845999994</v>
       </c>
       <c r="BO10" s="1">
-        <v>18.591506</v>
+        <v>18.591505999999999</v>
       </c>
       <c r="BP10" s="1">
-        <v>1214.870000</v>
+        <v>1214.8699999999999</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-491.254000</v>
+        <v>-491.25400000000002</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>66940.967216</v>
+        <v>66940.967216000005</v>
       </c>
       <c r="BT10" s="1">
-        <v>18.594713</v>
+        <v>18.594712999999999</v>
       </c>
       <c r="BU10" s="1">
-        <v>1336.810000</v>
+        <v>1336.81</v>
       </c>
       <c r="BV10" s="1">
-        <v>-687.623000</v>
+        <v>-687.62300000000005</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>66951.734866</v>
+        <v>66951.734865999999</v>
       </c>
       <c r="BY10" s="1">
         <v>18.597704</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1471.790000</v>
+        <v>1471.79</v>
       </c>
       <c r="CA10" s="1">
-        <v>-896.525000</v>
+        <v>-896.52499999999998</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>66963.160211</v>
+        <v>66963.160210999995</v>
       </c>
       <c r="CD10" s="1">
-        <v>18.600878</v>
+        <v>18.600878000000002</v>
       </c>
       <c r="CE10" s="1">
-        <v>1822.000000</v>
+        <v>1822</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1390.240000</v>
+        <v>-1390.24</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>66791.137222</v>
+        <v>66791.137222000005</v>
       </c>
       <c r="B11" s="1">
-        <v>18.553094</v>
+        <v>18.553094000000002</v>
       </c>
       <c r="C11" s="1">
-        <v>898.383000</v>
+        <v>898.38300000000004</v>
       </c>
       <c r="D11" s="1">
-        <v>-203.008000</v>
+        <v>-203.00800000000001</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>66801.618680</v>
+        <v>66801.61868</v>
       </c>
       <c r="G11" s="1">
-        <v>18.556005</v>
+        <v>18.556004999999999</v>
       </c>
       <c r="H11" s="1">
-        <v>917.098000</v>
+        <v>917.09799999999996</v>
       </c>
       <c r="I11" s="1">
-        <v>-172.269000</v>
+        <v>-172.26900000000001</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
         <v>66812.089257</v>
       </c>
       <c r="L11" s="1">
-        <v>18.558914</v>
+        <v>18.558914000000001</v>
       </c>
       <c r="M11" s="1">
-        <v>941.244000</v>
+        <v>941.24400000000003</v>
       </c>
       <c r="N11" s="1">
-        <v>-122.233000</v>
+        <v>-122.233</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>66822.576635</v>
+        <v>66822.576635000005</v>
       </c>
       <c r="Q11" s="1">
-        <v>18.561827</v>
+        <v>18.561827000000001</v>
       </c>
       <c r="R11" s="1">
-        <v>948.396000</v>
+        <v>948.39599999999996</v>
       </c>
       <c r="S11" s="1">
-        <v>-105.550000</v>
+        <v>-105.55</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>66833.110670</v>
+        <v>66833.110669999995</v>
       </c>
       <c r="V11" s="1">
         <v>18.564753</v>
       </c>
       <c r="W11" s="1">
-        <v>955.339000</v>
+        <v>955.33900000000006</v>
       </c>
       <c r="X11" s="1">
-        <v>-89.856900</v>
+        <v>-89.856899999999996</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>66843.248401</v>
+        <v>66843.248401000004</v>
       </c>
       <c r="AA11" s="1">
-        <v>18.567569</v>
+        <v>18.567568999999999</v>
       </c>
       <c r="AB11" s="1">
-        <v>962.452000</v>
+        <v>962.452</v>
       </c>
       <c r="AC11" s="1">
-        <v>-77.814100</v>
+        <v>-77.814099999999996</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>66854.037910</v>
+        <v>66854.037909999999</v>
       </c>
       <c r="AF11" s="1">
-        <v>18.570566</v>
+        <v>18.570565999999999</v>
       </c>
       <c r="AG11" s="1">
-        <v>966.430000</v>
+        <v>966.43</v>
       </c>
       <c r="AH11" s="1">
-        <v>-74.515900</v>
+        <v>-74.515900000000002</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>66864.528299</v>
+        <v>66864.528298999998</v>
       </c>
       <c r="AK11" s="1">
-        <v>18.573480</v>
+        <v>18.57348</v>
       </c>
       <c r="AL11" s="1">
-        <v>973.968000</v>
+        <v>973.96799999999996</v>
       </c>
       <c r="AM11" s="1">
-        <v>-79.338400</v>
+        <v>-79.338399999999993</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>66875.574698</v>
+        <v>66875.574697999997</v>
       </c>
       <c r="AP11" s="1">
         <v>18.576549</v>
       </c>
       <c r="AQ11" s="1">
-        <v>982.182000</v>
+        <v>982.18200000000002</v>
       </c>
       <c r="AR11" s="1">
-        <v>-90.791300</v>
+        <v>-90.791300000000007</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>66886.731213</v>
+        <v>66886.731213000006</v>
       </c>
       <c r="AU11" s="1">
-        <v>18.579648</v>
+        <v>18.579647999999999</v>
       </c>
       <c r="AV11" s="1">
-        <v>992.016000</v>
+        <v>992.01599999999996</v>
       </c>
       <c r="AW11" s="1">
-        <v>-108.336000</v>
+        <v>-108.336</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>66897.740873</v>
+        <v>66897.740873000002</v>
       </c>
       <c r="AZ11" s="1">
-        <v>18.582706</v>
+        <v>18.582706000000002</v>
       </c>
       <c r="BA11" s="1">
-        <v>1000.270000</v>
+        <v>1000.27</v>
       </c>
       <c r="BB11" s="1">
-        <v>-123.861000</v>
+        <v>-123.861</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>66908.358265</v>
+        <v>66908.358265000003</v>
       </c>
       <c r="BE11" s="1">
-        <v>18.585655</v>
+        <v>18.585654999999999</v>
       </c>
       <c r="BF11" s="1">
-        <v>1038.950000</v>
+        <v>1038.95</v>
       </c>
       <c r="BG11" s="1">
-        <v>-195.292000</v>
+        <v>-195.292</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>66919.220123</v>
+        <v>66919.220123000006</v>
       </c>
       <c r="BJ11" s="1">
-        <v>18.588672</v>
+        <v>18.588671999999999</v>
       </c>
       <c r="BK11" s="1">
-        <v>1105.980000</v>
+        <v>1105.98</v>
       </c>
       <c r="BL11" s="1">
-        <v>-310.753000</v>
+        <v>-310.75299999999999</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>66930.155917</v>
+        <v>66930.155916999996</v>
       </c>
       <c r="BO11" s="1">
-        <v>18.591710</v>
+        <v>18.591709999999999</v>
       </c>
       <c r="BP11" s="1">
-        <v>1214.840000</v>
+        <v>1214.8399999999999</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-491.235000</v>
+        <v>-491.23500000000001</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>66941.080334</v>
+        <v>66941.080333999998</v>
       </c>
       <c r="BT11" s="1">
         <v>18.594745</v>
       </c>
       <c r="BU11" s="1">
-        <v>1336.810000</v>
+        <v>1336.81</v>
       </c>
       <c r="BV11" s="1">
-        <v>-687.585000</v>
+        <v>-687.58500000000004</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>66951.867298</v>
+        <v>66951.867297999997</v>
       </c>
       <c r="BY11" s="1">
-        <v>18.597741</v>
+        <v>18.597740999999999</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1471.810000</v>
+        <v>1471.81</v>
       </c>
       <c r="CA11" s="1">
-        <v>-896.488000</v>
+        <v>-896.48800000000006</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>66963.677572</v>
+        <v>66963.677572000001</v>
       </c>
       <c r="CD11" s="1">
         <v>18.601022</v>
       </c>
       <c r="CE11" s="1">
-        <v>1823.480000</v>
+        <v>1823.48</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1390.750000</v>
+        <v>-1390.75</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>66791.560309</v>
+        <v>66791.560308999993</v>
       </c>
       <c r="B12" s="1">
-        <v>18.553211</v>
+        <v>18.553211000000001</v>
       </c>
       <c r="C12" s="1">
-        <v>898.407000</v>
+        <v>898.40700000000004</v>
       </c>
       <c r="D12" s="1">
-        <v>-203.008000</v>
+        <v>-203.00800000000001</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>66801.894982</v>
+        <v>66801.894981999998</v>
       </c>
       <c r="G12" s="1">
         <v>18.556082</v>
       </c>
       <c r="H12" s="1">
-        <v>917.170000</v>
+        <v>917.17</v>
       </c>
       <c r="I12" s="1">
-        <v>-172.203000</v>
+        <v>-172.203</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>66812.383352</v>
+        <v>66812.383352000004</v>
       </c>
       <c r="L12" s="1">
-        <v>18.558995</v>
+        <v>18.558994999999999</v>
       </c>
       <c r="M12" s="1">
-        <v>941.296000</v>
+        <v>941.29600000000005</v>
       </c>
       <c r="N12" s="1">
-        <v>-122.208000</v>
+        <v>-122.208</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>66822.925910</v>
+        <v>66822.925910000005</v>
       </c>
       <c r="Q12" s="1">
-        <v>18.561924</v>
+        <v>18.561924000000001</v>
       </c>
       <c r="R12" s="1">
-        <v>948.337000</v>
+        <v>948.33699999999999</v>
       </c>
       <c r="S12" s="1">
-        <v>-105.526000</v>
+        <v>-105.526</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>66833.453900</v>
+        <v>66833.453899999993</v>
       </c>
       <c r="V12" s="1">
-        <v>18.564848</v>
+        <v>18.564848000000001</v>
       </c>
       <c r="W12" s="1">
-        <v>955.273000</v>
+        <v>955.27300000000002</v>
       </c>
       <c r="X12" s="1">
-        <v>-89.988500</v>
+        <v>-89.988500000000002</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>66843.597583</v>
+        <v>66843.597582999995</v>
       </c>
       <c r="AA12" s="1">
-        <v>18.567666</v>
+        <v>18.567665999999999</v>
       </c>
       <c r="AB12" s="1">
-        <v>962.513000</v>
+        <v>962.51300000000003</v>
       </c>
       <c r="AC12" s="1">
-        <v>-77.778800</v>
+        <v>-77.778800000000004</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>66854.725824</v>
+        <v>66854.725823999994</v>
       </c>
       <c r="AF12" s="1">
         <v>18.570757</v>
       </c>
       <c r="AG12" s="1">
-        <v>966.441000</v>
+        <v>966.44100000000003</v>
       </c>
       <c r="AH12" s="1">
-        <v>-74.600200</v>
+        <v>-74.600200000000001</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>66865.222164</v>
+        <v>66865.222164000006</v>
       </c>
       <c r="AK12" s="1">
-        <v>18.573673</v>
+        <v>18.573672999999999</v>
       </c>
       <c r="AL12" s="1">
-        <v>973.954000</v>
+        <v>973.95399999999995</v>
       </c>
       <c r="AM12" s="1">
-        <v>-79.320700</v>
+        <v>-79.320700000000002</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>66875.953109</v>
+        <v>66875.953108999995</v>
       </c>
       <c r="AP12" s="1">
-        <v>18.576654</v>
+        <v>18.576654000000001</v>
       </c>
       <c r="AQ12" s="1">
-        <v>982.158000</v>
+        <v>982.15800000000002</v>
       </c>
       <c r="AR12" s="1">
-        <v>-90.818800</v>
+        <v>-90.818799999999996</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>66887.067957</v>
+        <v>66887.067957000007</v>
       </c>
       <c r="AU12" s="1">
-        <v>18.579741</v>
+        <v>18.579740999999999</v>
       </c>
       <c r="AV12" s="1">
-        <v>992.032000</v>
+        <v>992.03200000000004</v>
       </c>
       <c r="AW12" s="1">
-        <v>-108.321000</v>
+        <v>-108.321</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>66898.116343</v>
+        <v>66898.116343000002</v>
       </c>
       <c r="AZ12" s="1">
-        <v>18.582810</v>
+        <v>18.582809999999998</v>
       </c>
       <c r="BA12" s="1">
-        <v>1000.260000</v>
+        <v>1000.26</v>
       </c>
       <c r="BB12" s="1">
-        <v>-123.845000</v>
+        <v>-123.845</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
         <v>66909.046682</v>
@@ -3216,1119 +3632,1119 @@
         <v>18.585846</v>
       </c>
       <c r="BF12" s="1">
-        <v>1038.940000</v>
+        <v>1038.94</v>
       </c>
       <c r="BG12" s="1">
-        <v>-195.288000</v>
+        <v>-195.28800000000001</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>66919.908074</v>
+        <v>66919.908074000006</v>
       </c>
       <c r="BJ12" s="1">
         <v>18.588863</v>
       </c>
       <c r="BK12" s="1">
-        <v>1106.000000</v>
+        <v>1106</v>
       </c>
       <c r="BL12" s="1">
-        <v>-310.720000</v>
+        <v>-310.72000000000003</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>66930.266354</v>
+        <v>66930.266354000007</v>
       </c>
       <c r="BO12" s="1">
-        <v>18.591741</v>
+        <v>18.591740999999999</v>
       </c>
       <c r="BP12" s="1">
-        <v>1214.850000</v>
+        <v>1214.8499999999999</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-491.215000</v>
+        <v>-491.21499999999997</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>66941.517804</v>
+        <v>66941.517804000003</v>
       </c>
       <c r="BT12" s="1">
         <v>18.594866</v>
       </c>
       <c r="BU12" s="1">
-        <v>1336.740000</v>
+        <v>1336.74</v>
       </c>
       <c r="BV12" s="1">
-        <v>-687.574000</v>
+        <v>-687.57399999999996</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>66952.290416</v>
+        <v>66952.290416000003</v>
       </c>
       <c r="BY12" s="1">
-        <v>18.597858</v>
+        <v>18.597857999999999</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1471.900000</v>
+        <v>1471.9</v>
       </c>
       <c r="CA12" s="1">
-        <v>-896.368000</v>
+        <v>-896.36800000000005</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>66964.196631</v>
+        <v>66964.196630999999</v>
       </c>
       <c r="CD12" s="1">
-        <v>18.601166</v>
+        <v>18.601165999999999</v>
       </c>
       <c r="CE12" s="1">
-        <v>1823.330000</v>
+        <v>1823.33</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1391.190000</v>
+        <v>-1391.19</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>66791.836579</v>
+        <v>66791.836578999995</v>
       </c>
       <c r="B13" s="1">
-        <v>18.553288</v>
+        <v>18.553287999999998</v>
       </c>
       <c r="C13" s="1">
-        <v>898.494000</v>
+        <v>898.49400000000003</v>
       </c>
       <c r="D13" s="1">
-        <v>-203.104000</v>
+        <v>-203.10400000000001</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>66802.239671</v>
+        <v>66802.239671000003</v>
       </c>
       <c r="G13" s="1">
-        <v>18.556178</v>
+        <v>18.556177999999999</v>
       </c>
       <c r="H13" s="1">
-        <v>917.122000</v>
+        <v>917.12199999999996</v>
       </c>
       <c r="I13" s="1">
-        <v>-171.994000</v>
+        <v>-171.994</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>66812.726760</v>
+        <v>66812.726760000005</v>
       </c>
       <c r="L13" s="1">
-        <v>18.559091</v>
+        <v>18.559090999999999</v>
       </c>
       <c r="M13" s="1">
-        <v>941.462000</v>
+        <v>941.46199999999999</v>
       </c>
       <c r="N13" s="1">
-        <v>-122.254000</v>
+        <v>-122.254</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>66823.275805</v>
+        <v>66823.275804999997</v>
       </c>
       <c r="Q13" s="1">
-        <v>18.562021</v>
+        <v>18.562021000000001</v>
       </c>
       <c r="R13" s="1">
-        <v>948.381000</v>
+        <v>948.38099999999997</v>
       </c>
       <c r="S13" s="1">
-        <v>-105.461000</v>
+        <v>-105.461</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>66833.800108</v>
+        <v>66833.800107999996</v>
       </c>
       <c r="V13" s="1">
-        <v>18.564944</v>
+        <v>18.564944000000001</v>
       </c>
       <c r="W13" s="1">
-        <v>955.274000</v>
+        <v>955.274</v>
       </c>
       <c r="X13" s="1">
-        <v>-90.041600</v>
+        <v>-90.041600000000003</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>66844.290494</v>
+        <v>66844.290494000001</v>
       </c>
       <c r="AA13" s="1">
-        <v>18.567858</v>
+        <v>18.567858000000001</v>
       </c>
       <c r="AB13" s="1">
-        <v>962.508000</v>
+        <v>962.50800000000004</v>
       </c>
       <c r="AC13" s="1">
-        <v>-77.809000</v>
+        <v>-77.808999999999997</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>66855.069593</v>
+        <v>66855.069592999993</v>
       </c>
       <c r="AF13" s="1">
         <v>18.570853</v>
       </c>
       <c r="AG13" s="1">
-        <v>966.405000</v>
+        <v>966.40499999999997</v>
       </c>
       <c r="AH13" s="1">
-        <v>-74.585600</v>
+        <v>-74.585599999999999</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>66865.569362</v>
+        <v>66865.569361999995</v>
       </c>
       <c r="AK13" s="1">
-        <v>18.573769</v>
+        <v>18.573768999999999</v>
       </c>
       <c r="AL13" s="1">
-        <v>973.972000</v>
+        <v>973.97199999999998</v>
       </c>
       <c r="AM13" s="1">
-        <v>-79.334000</v>
+        <v>-79.334000000000003</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>66876.311220</v>
+        <v>66876.311220000003</v>
       </c>
       <c r="AP13" s="1">
         <v>18.576753</v>
       </c>
       <c r="AQ13" s="1">
-        <v>982.147000</v>
+        <v>982.14700000000005</v>
       </c>
       <c r="AR13" s="1">
-        <v>-90.792100</v>
+        <v>-90.792100000000005</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
         <v>66887.726186</v>
       </c>
       <c r="AU13" s="1">
-        <v>18.579924</v>
+        <v>18.579923999999998</v>
       </c>
       <c r="AV13" s="1">
-        <v>992.039000</v>
+        <v>992.03899999999999</v>
       </c>
       <c r="AW13" s="1">
-        <v>-108.336000</v>
+        <v>-108.336</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>66898.782993</v>
+        <v>66898.782993000001</v>
       </c>
       <c r="AZ13" s="1">
         <v>18.582995</v>
       </c>
       <c r="BA13" s="1">
-        <v>1000.270000</v>
+        <v>1000.27</v>
       </c>
       <c r="BB13" s="1">
-        <v>-123.837000</v>
+        <v>-123.837</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>66909.472745</v>
+        <v>66909.472745000006</v>
       </c>
       <c r="BE13" s="1">
-        <v>18.585965</v>
+        <v>18.585965000000002</v>
       </c>
       <c r="BF13" s="1">
-        <v>1038.960000</v>
+        <v>1038.96</v>
       </c>
       <c r="BG13" s="1">
-        <v>-195.295000</v>
+        <v>-195.29499999999999</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>66920.433929</v>
+        <v>66920.433929000006</v>
       </c>
       <c r="BJ13" s="1">
-        <v>18.589009</v>
+        <v>18.589009000000001</v>
       </c>
       <c r="BK13" s="1">
-        <v>1106.010000</v>
+        <v>1106.01</v>
       </c>
       <c r="BL13" s="1">
-        <v>-310.746000</v>
+        <v>-310.74599999999998</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>66930.659885</v>
+        <v>66930.659885000001</v>
       </c>
       <c r="BO13" s="1">
-        <v>18.591850</v>
+        <v>18.591850000000001</v>
       </c>
       <c r="BP13" s="1">
-        <v>1214.820000</v>
+        <v>1214.82</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-491.217000</v>
+        <v>-491.21699999999998</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>66941.928958</v>
+        <v>66941.928958000004</v>
       </c>
       <c r="BT13" s="1">
-        <v>18.594980</v>
+        <v>18.59498</v>
       </c>
       <c r="BU13" s="1">
-        <v>1336.650000</v>
+        <v>1336.65</v>
       </c>
       <c r="BV13" s="1">
-        <v>-687.605000</v>
+        <v>-687.60500000000002</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>66952.740256</v>
+        <v>66952.740256000005</v>
       </c>
       <c r="BY13" s="1">
-        <v>18.597983</v>
+        <v>18.597982999999999</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1472.000000</v>
+        <v>1472</v>
       </c>
       <c r="CA13" s="1">
-        <v>-896.529000</v>
+        <v>-896.529</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>66964.746591</v>
+        <v>66964.746591000003</v>
       </c>
       <c r="CD13" s="1">
-        <v>18.601318</v>
+        <v>18.601317999999999</v>
       </c>
       <c r="CE13" s="1">
-        <v>1822.240000</v>
+        <v>1822.24</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1390.610000</v>
+        <v>-1390.61</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>66792.176339</v>
+        <v>66792.176338999998</v>
       </c>
       <c r="B14" s="1">
-        <v>18.553382</v>
+        <v>18.553381999999999</v>
       </c>
       <c r="C14" s="1">
-        <v>898.564000</v>
+        <v>898.56399999999996</v>
       </c>
       <c r="D14" s="1">
-        <v>-202.972000</v>
+        <v>-202.97200000000001</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>66802.584885</v>
+        <v>66802.584885000004</v>
       </c>
       <c r="G14" s="1">
-        <v>18.556274</v>
+        <v>18.556273999999998</v>
       </c>
       <c r="H14" s="1">
-        <v>917.137000</v>
+        <v>917.13699999999994</v>
       </c>
       <c r="I14" s="1">
-        <v>-171.828000</v>
+        <v>-171.828</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>66813.074280</v>
+        <v>66813.074280000001</v>
       </c>
       <c r="L14" s="1">
-        <v>18.559187</v>
+        <v>18.559187000000001</v>
       </c>
       <c r="M14" s="1">
-        <v>941.301000</v>
+        <v>941.30100000000004</v>
       </c>
       <c r="N14" s="1">
-        <v>-122.225000</v>
+        <v>-122.22499999999999</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>66823.973897</v>
+        <v>66823.973897000003</v>
       </c>
       <c r="Q14" s="1">
-        <v>18.562215</v>
+        <v>18.562214999999998</v>
       </c>
       <c r="R14" s="1">
-        <v>948.419000</v>
+        <v>948.41899999999998</v>
       </c>
       <c r="S14" s="1">
-        <v>-105.469000</v>
+        <v>-105.46899999999999</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>66834.482603</v>
+        <v>66834.482602999997</v>
       </c>
       <c r="V14" s="1">
         <v>18.565134</v>
       </c>
       <c r="W14" s="1">
-        <v>955.126000</v>
+        <v>955.12599999999998</v>
       </c>
       <c r="X14" s="1">
-        <v>-89.931800</v>
+        <v>-89.931799999999996</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>66844.642159</v>
+        <v>66844.642158999995</v>
       </c>
       <c r="AA14" s="1">
-        <v>18.567956</v>
+        <v>18.567955999999999</v>
       </c>
       <c r="AB14" s="1">
-        <v>962.514000</v>
+        <v>962.51400000000001</v>
       </c>
       <c r="AC14" s="1">
-        <v>-77.814200</v>
+        <v>-77.8142</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>66855.413291</v>
+        <v>66855.413291000004</v>
       </c>
       <c r="AF14" s="1">
-        <v>18.570948</v>
+        <v>18.570948000000001</v>
       </c>
       <c r="AG14" s="1">
-        <v>966.517000</v>
+        <v>966.51700000000005</v>
       </c>
       <c r="AH14" s="1">
-        <v>-74.611300</v>
+        <v>-74.6113</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>66865.919043</v>
+        <v>66865.919043000002</v>
       </c>
       <c r="AK14" s="1">
-        <v>18.573866</v>
+        <v>18.573865999999999</v>
       </c>
       <c r="AL14" s="1">
-        <v>973.960000</v>
+        <v>973.96</v>
       </c>
       <c r="AM14" s="1">
-        <v>-79.342000</v>
+        <v>-79.341999999999999</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>66876.977843</v>
+        <v>66876.977843000001</v>
       </c>
       <c r="AP14" s="1">
-        <v>18.576938</v>
+        <v>18.576937999999998</v>
       </c>
       <c r="AQ14" s="1">
-        <v>982.156000</v>
+        <v>982.15599999999995</v>
       </c>
       <c r="AR14" s="1">
-        <v>-90.797700</v>
+        <v>-90.797700000000006</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>66888.152710</v>
+        <v>66888.152709999995</v>
       </c>
       <c r="AU14" s="1">
-        <v>18.580042</v>
+        <v>18.580041999999999</v>
       </c>
       <c r="AV14" s="1">
-        <v>992.032000</v>
+        <v>992.03200000000004</v>
       </c>
       <c r="AW14" s="1">
-        <v>-108.350000</v>
+        <v>-108.35</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>66899.200597</v>
+        <v>66899.200597000003</v>
       </c>
       <c r="AZ14" s="1">
-        <v>18.583111</v>
+        <v>18.583110999999999</v>
       </c>
       <c r="BA14" s="1">
-        <v>1000.270000</v>
+        <v>1000.27</v>
       </c>
       <c r="BB14" s="1">
-        <v>-123.855000</v>
+        <v>-123.855</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>66909.829864</v>
+        <v>66909.829863999999</v>
       </c>
       <c r="BE14" s="1">
         <v>18.586064</v>
       </c>
       <c r="BF14" s="1">
-        <v>1038.950000</v>
+        <v>1038.95</v>
       </c>
       <c r="BG14" s="1">
-        <v>-195.292000</v>
+        <v>-195.292</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>66920.763709</v>
+        <v>66920.763709000006</v>
       </c>
       <c r="BJ14" s="1">
-        <v>18.589101</v>
+        <v>18.589100999999999</v>
       </c>
       <c r="BK14" s="1">
-        <v>1105.980000</v>
+        <v>1105.98</v>
       </c>
       <c r="BL14" s="1">
-        <v>-310.734000</v>
+        <v>-310.73399999999998</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>66931.083931</v>
+        <v>66931.083931000001</v>
       </c>
       <c r="BO14" s="1">
-        <v>18.591968</v>
+        <v>18.591968000000001</v>
       </c>
       <c r="BP14" s="1">
-        <v>1214.870000</v>
+        <v>1214.8699999999999</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-491.213000</v>
+        <v>-491.21300000000002</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>66942.352542</v>
+        <v>66942.352541999993</v>
       </c>
       <c r="BT14" s="1">
         <v>18.595098</v>
       </c>
       <c r="BU14" s="1">
-        <v>1336.600000</v>
+        <v>1336.6</v>
       </c>
       <c r="BV14" s="1">
-        <v>-687.544000</v>
+        <v>-687.54399999999998</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>66953.190128</v>
+        <v>66953.190128000002</v>
       </c>
       <c r="BY14" s="1">
         <v>18.598108</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1471.830000</v>
+        <v>1471.83</v>
       </c>
       <c r="CA14" s="1">
-        <v>-896.449000</v>
+        <v>-896.44899999999996</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>66965.276670</v>
+        <v>66965.276670000007</v>
       </c>
       <c r="CD14" s="1">
-        <v>18.601466</v>
+        <v>18.601465999999999</v>
       </c>
       <c r="CE14" s="1">
-        <v>1823.720000</v>
+        <v>1823.72</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1390.640000</v>
+        <v>-1390.64</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>66792.519571</v>
+        <v>66792.519570999997</v>
       </c>
       <c r="B15" s="1">
-        <v>18.553478</v>
+        <v>18.553477999999998</v>
       </c>
       <c r="C15" s="1">
-        <v>898.381000</v>
+        <v>898.38099999999997</v>
       </c>
       <c r="D15" s="1">
-        <v>-202.910000</v>
+        <v>-202.91</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>66803.272342</v>
+        <v>66803.272341999997</v>
       </c>
       <c r="G15" s="1">
-        <v>18.556465</v>
+        <v>18.556464999999999</v>
       </c>
       <c r="H15" s="1">
-        <v>916.906000</v>
+        <v>916.90599999999995</v>
       </c>
       <c r="I15" s="1">
-        <v>-172.307000</v>
+        <v>-172.30699999999999</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>66813.766199</v>
+        <v>66813.766199000005</v>
       </c>
       <c r="L15" s="1">
         <v>18.559379</v>
       </c>
       <c r="M15" s="1">
-        <v>941.401000</v>
+        <v>941.40099999999995</v>
       </c>
       <c r="N15" s="1">
-        <v>-122.288000</v>
+        <v>-122.288</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>66824.320569</v>
+        <v>66824.320569000003</v>
       </c>
       <c r="Q15" s="1">
-        <v>18.562311</v>
+        <v>18.562311000000001</v>
       </c>
       <c r="R15" s="1">
-        <v>948.431000</v>
+        <v>948.43100000000004</v>
       </c>
       <c r="S15" s="1">
-        <v>-105.550000</v>
+        <v>-105.55</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>66834.910651</v>
+        <v>66834.910650999998</v>
       </c>
       <c r="V15" s="1">
-        <v>18.565253</v>
+        <v>18.565252999999998</v>
       </c>
       <c r="W15" s="1">
-        <v>955.177000</v>
+        <v>955.17700000000002</v>
       </c>
       <c r="X15" s="1">
-        <v>-90.053500</v>
+        <v>-90.0535</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>66844.987871</v>
+        <v>66844.987871000005</v>
       </c>
       <c r="AA15" s="1">
-        <v>18.568052</v>
+        <v>18.568052000000002</v>
       </c>
       <c r="AB15" s="1">
-        <v>962.497000</v>
+        <v>962.49699999999996</v>
       </c>
       <c r="AC15" s="1">
-        <v>-77.825900</v>
+        <v>-77.825900000000004</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>66856.070511</v>
+        <v>66856.070510999998</v>
       </c>
       <c r="AF15" s="1">
-        <v>18.571131</v>
+        <v>18.571131000000001</v>
       </c>
       <c r="AG15" s="1">
-        <v>966.343000</v>
+        <v>966.34299999999996</v>
       </c>
       <c r="AH15" s="1">
-        <v>-74.698000</v>
+        <v>-74.697999999999993</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>66866.577730</v>
+        <v>66866.577730000005</v>
       </c>
       <c r="AK15" s="1">
-        <v>18.574049</v>
+        <v>18.574048999999999</v>
       </c>
       <c r="AL15" s="1">
-        <v>973.967000</v>
+        <v>973.96699999999998</v>
       </c>
       <c r="AM15" s="1">
-        <v>-79.346800</v>
+        <v>-79.346800000000002</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>66877.391507</v>
+        <v>66877.391506999993</v>
       </c>
       <c r="AP15" s="1">
-        <v>18.577053</v>
+        <v>18.577052999999999</v>
       </c>
       <c r="AQ15" s="1">
-        <v>982.164000</v>
+        <v>982.16399999999999</v>
       </c>
       <c r="AR15" s="1">
-        <v>-90.815000</v>
+        <v>-90.814999999999998</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>66888.534627</v>
+        <v>66888.534627000001</v>
       </c>
       <c r="AU15" s="1">
-        <v>18.580149</v>
+        <v>18.580148999999999</v>
       </c>
       <c r="AV15" s="1">
-        <v>992.037000</v>
+        <v>992.03700000000003</v>
       </c>
       <c r="AW15" s="1">
-        <v>-108.347000</v>
+        <v>-108.34699999999999</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>66899.577557</v>
+        <v>66899.577556999997</v>
       </c>
       <c r="AZ15" s="1">
         <v>18.583216</v>
       </c>
       <c r="BA15" s="1">
-        <v>1000.260000</v>
+        <v>1000.26</v>
       </c>
       <c r="BB15" s="1">
-        <v>-123.840000</v>
+        <v>-123.84</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>66910.191945</v>
+        <v>66910.191944999999</v>
       </c>
       <c r="BE15" s="1">
         <v>18.586164</v>
       </c>
       <c r="BF15" s="1">
-        <v>1038.940000</v>
+        <v>1038.94</v>
       </c>
       <c r="BG15" s="1">
-        <v>-195.288000</v>
+        <v>-195.28800000000001</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>66921.183786</v>
+        <v>66921.183785999994</v>
       </c>
       <c r="BJ15" s="1">
-        <v>18.589218</v>
+        <v>18.589217999999999</v>
       </c>
       <c r="BK15" s="1">
-        <v>1105.980000</v>
+        <v>1105.98</v>
       </c>
       <c r="BL15" s="1">
-        <v>-310.736000</v>
+        <v>-310.73599999999999</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>66931.515949</v>
+        <v>66931.515948999993</v>
       </c>
       <c r="BO15" s="1">
         <v>18.592088</v>
       </c>
       <c r="BP15" s="1">
-        <v>1214.840000</v>
+        <v>1214.8399999999999</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-491.221000</v>
+        <v>-491.221</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>66942.784061</v>
+        <v>66942.784060999998</v>
       </c>
       <c r="BT15" s="1">
-        <v>18.595218</v>
+        <v>18.595217999999999</v>
       </c>
       <c r="BU15" s="1">
-        <v>1336.550000</v>
+        <v>1336.55</v>
       </c>
       <c r="BV15" s="1">
-        <v>-687.536000</v>
+        <v>-687.53599999999994</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>66953.593374</v>
+        <v>66953.593374000004</v>
       </c>
       <c r="BY15" s="1">
-        <v>18.598220</v>
+        <v>18.598220000000001</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1471.900000</v>
+        <v>1471.9</v>
       </c>
       <c r="CA15" s="1">
-        <v>-896.434000</v>
+        <v>-896.43399999999997</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>66965.797438</v>
+        <v>66965.797437999994</v>
       </c>
       <c r="CD15" s="1">
-        <v>18.601610</v>
+        <v>18.601610000000001</v>
       </c>
       <c r="CE15" s="1">
-        <v>1823.360000</v>
+        <v>1823.36</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1390.960000</v>
+        <v>-1390.96</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>66793.202598</v>
+        <v>66793.202598000003</v>
       </c>
       <c r="B16" s="1">
-        <v>18.553667</v>
+        <v>18.553667000000001</v>
       </c>
       <c r="C16" s="1">
-        <v>898.388000</v>
+        <v>898.38800000000003</v>
       </c>
       <c r="D16" s="1">
-        <v>-203.135000</v>
+        <v>-203.13499999999999</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>66803.616600</v>
+        <v>66803.616599999994</v>
       </c>
       <c r="G16" s="1">
-        <v>18.556560</v>
+        <v>18.556560000000001</v>
       </c>
       <c r="H16" s="1">
-        <v>917.202000</v>
+        <v>917.202</v>
       </c>
       <c r="I16" s="1">
-        <v>-172.044000</v>
+        <v>-172.04400000000001</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>66814.110953</v>
+        <v>66814.110952999996</v>
       </c>
       <c r="L16" s="1">
-        <v>18.559475</v>
+        <v>18.559474999999999</v>
       </c>
       <c r="M16" s="1">
-        <v>941.287000</v>
+        <v>941.28700000000003</v>
       </c>
       <c r="N16" s="1">
-        <v>-122.164000</v>
+        <v>-122.164</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>66824.669784</v>
+        <v>66824.669783999998</v>
       </c>
       <c r="Q16" s="1">
-        <v>18.562408</v>
+        <v>18.562408000000001</v>
       </c>
       <c r="R16" s="1">
-        <v>948.403000</v>
+        <v>948.40300000000002</v>
       </c>
       <c r="S16" s="1">
-        <v>-105.558000</v>
+        <v>-105.55800000000001</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>66835.183485</v>
+        <v>66835.183485000001</v>
       </c>
       <c r="V16" s="1">
-        <v>18.565329</v>
+        <v>18.565328999999998</v>
       </c>
       <c r="W16" s="1">
-        <v>955.242000</v>
+        <v>955.24199999999996</v>
       </c>
       <c r="X16" s="1">
-        <v>-89.949700</v>
+        <v>-89.949700000000007</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>66845.648541</v>
+        <v>66845.648541000002</v>
       </c>
       <c r="AA16" s="1">
-        <v>18.568236</v>
+        <v>18.568235999999999</v>
       </c>
       <c r="AB16" s="1">
-        <v>962.526000</v>
+        <v>962.52599999999995</v>
       </c>
       <c r="AC16" s="1">
-        <v>-77.792100</v>
+        <v>-77.792100000000005</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>66856.445454</v>
+        <v>66856.445454000001</v>
       </c>
       <c r="AF16" s="1">
-        <v>18.571235</v>
+        <v>18.571235000000001</v>
       </c>
       <c r="AG16" s="1">
-        <v>966.562000</v>
+        <v>966.56200000000001</v>
       </c>
       <c r="AH16" s="1">
-        <v>-74.503700</v>
+        <v>-74.503699999999995</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>66866.965104</v>
+        <v>66866.965104000003</v>
       </c>
       <c r="AK16" s="1">
         <v>18.574157</v>
       </c>
       <c r="AL16" s="1">
-        <v>973.938000</v>
+        <v>973.93799999999999</v>
       </c>
       <c r="AM16" s="1">
-        <v>-79.341800</v>
+        <v>-79.341800000000006</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>66877.773923</v>
+        <v>66877.773923000001</v>
       </c>
       <c r="AP16" s="1">
-        <v>18.577159</v>
+        <v>18.577159000000002</v>
       </c>
       <c r="AQ16" s="1">
-        <v>982.155000</v>
+        <v>982.15499999999997</v>
       </c>
       <c r="AR16" s="1">
-        <v>-90.816600</v>
+        <v>-90.816599999999994</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
         <v>66888.897203</v>
       </c>
       <c r="AU16" s="1">
-        <v>18.580249</v>
+        <v>18.580248999999998</v>
       </c>
       <c r="AV16" s="1">
-        <v>992.034000</v>
+        <v>992.03399999999999</v>
       </c>
       <c r="AW16" s="1">
-        <v>-108.348000</v>
+        <v>-108.348</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>66899.955045</v>
+        <v>66899.955044999995</v>
       </c>
       <c r="AZ16" s="1">
-        <v>18.583321</v>
+        <v>18.583321000000002</v>
       </c>
       <c r="BA16" s="1">
-        <v>1000.270000</v>
+        <v>1000.27</v>
       </c>
       <c r="BB16" s="1">
-        <v>-123.847000</v>
+        <v>-123.84699999999999</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
         <v>66910.607592</v>
       </c>
       <c r="BE16" s="1">
-        <v>18.586280</v>
+        <v>18.586279999999999</v>
       </c>
       <c r="BF16" s="1">
-        <v>1038.940000</v>
+        <v>1038.94</v>
       </c>
       <c r="BG16" s="1">
-        <v>-195.317000</v>
+        <v>-195.31700000000001</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>66921.517099</v>
+        <v>66921.517099000004</v>
       </c>
       <c r="BJ16" s="1">
-        <v>18.589310</v>
+        <v>18.589310000000001</v>
       </c>
       <c r="BK16" s="1">
-        <v>1105.970000</v>
+        <v>1105.97</v>
       </c>
       <c r="BL16" s="1">
-        <v>-310.737000</v>
+        <v>-310.73700000000002</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>66931.904346</v>
+        <v>66931.904345999996</v>
       </c>
       <c r="BO16" s="1">
-        <v>18.592196</v>
+        <v>18.592196000000001</v>
       </c>
       <c r="BP16" s="1">
-        <v>1214.850000</v>
+        <v>1214.8499999999999</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-491.204000</v>
+        <v>-491.20400000000001</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>66943.211132</v>
+        <v>66943.211131999997</v>
       </c>
       <c r="BT16" s="1">
         <v>18.595336</v>
       </c>
       <c r="BU16" s="1">
-        <v>1336.390000</v>
+        <v>1336.39</v>
       </c>
       <c r="BV16" s="1">
-        <v>-687.556000</v>
+        <v>-687.55600000000004</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
         <v>66954.038816</v>
       </c>
       <c r="BY16" s="1">
-        <v>18.598344</v>
+        <v>18.598344000000001</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1471.810000</v>
+        <v>1471.81</v>
       </c>
       <c r="CA16" s="1">
-        <v>-896.435000</v>
+        <v>-896.43499999999995</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>66966.348529</v>
+        <v>66966.348528999995</v>
       </c>
       <c r="CD16" s="1">
-        <v>18.601763</v>
+        <v>18.601762999999998</v>
       </c>
       <c r="CE16" s="1">
-        <v>1822.360000</v>
+        <v>1822.36</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1390.660000</v>
+        <v>-1390.66</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
         <v>66793.545155</v>
       </c>
@@ -4336,345 +4752,345 @@
         <v>18.553763</v>
       </c>
       <c r="C17" s="1">
-        <v>898.415000</v>
+        <v>898.41499999999996</v>
       </c>
       <c r="D17" s="1">
-        <v>-202.986000</v>
+        <v>-202.98599999999999</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>66803.965749</v>
+        <v>66803.965748999995</v>
       </c>
       <c r="G17" s="1">
-        <v>18.556657</v>
+        <v>18.556657000000001</v>
       </c>
       <c r="H17" s="1">
-        <v>916.952000</v>
+        <v>916.952</v>
       </c>
       <c r="I17" s="1">
-        <v>-172.147000</v>
+        <v>-172.14699999999999</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>66814.458615</v>
+        <v>66814.458614999996</v>
       </c>
       <c r="L17" s="1">
-        <v>18.559572</v>
+        <v>18.559571999999999</v>
       </c>
       <c r="M17" s="1">
-        <v>941.255000</v>
+        <v>941.255</v>
       </c>
       <c r="N17" s="1">
-        <v>-122.102000</v>
+        <v>-122.102</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>66825.330423</v>
+        <v>66825.330423000007</v>
       </c>
       <c r="Q17" s="1">
-        <v>18.562592</v>
+        <v>18.562591999999999</v>
       </c>
       <c r="R17" s="1">
-        <v>948.360000</v>
+        <v>948.36</v>
       </c>
       <c r="S17" s="1">
-        <v>-105.508000</v>
+        <v>-105.508</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>66835.633818</v>
+        <v>66835.633818000002</v>
       </c>
       <c r="V17" s="1">
-        <v>18.565454</v>
+        <v>18.565453999999999</v>
       </c>
       <c r="W17" s="1">
-        <v>955.213000</v>
+        <v>955.21299999999997</v>
       </c>
       <c r="X17" s="1">
-        <v>-89.964300</v>
+        <v>-89.964299999999994</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>66846.033964</v>
+        <v>66846.033964000002</v>
       </c>
       <c r="AA17" s="1">
-        <v>18.568343</v>
+        <v>18.568342999999999</v>
       </c>
       <c r="AB17" s="1">
-        <v>962.521000</v>
+        <v>962.52099999999996</v>
       </c>
       <c r="AC17" s="1">
-        <v>-77.752500</v>
+        <v>-77.752499999999998</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>66856.787694</v>
+        <v>66856.787693999999</v>
       </c>
       <c r="AF17" s="1">
-        <v>18.571330</v>
+        <v>18.57133</v>
       </c>
       <c r="AG17" s="1">
-        <v>966.450000</v>
+        <v>966.45</v>
       </c>
       <c r="AH17" s="1">
-        <v>-74.581000</v>
+        <v>-74.581000000000003</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>66867.312799</v>
+        <v>66867.312799000007</v>
       </c>
       <c r="AK17" s="1">
         <v>18.574254</v>
       </c>
       <c r="AL17" s="1">
-        <v>973.950000</v>
+        <v>973.95</v>
       </c>
       <c r="AM17" s="1">
-        <v>-79.335200</v>
+        <v>-79.3352</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>66878.137517</v>
+        <v>66878.137516999996</v>
       </c>
       <c r="AP17" s="1">
-        <v>18.577260</v>
+        <v>18.577259999999999</v>
       </c>
       <c r="AQ17" s="1">
-        <v>982.170000</v>
+        <v>982.17</v>
       </c>
       <c r="AR17" s="1">
-        <v>-90.829800</v>
+        <v>-90.829800000000006</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>66889.312878</v>
+        <v>66889.312877999997</v>
       </c>
       <c r="AU17" s="1">
         <v>18.580365</v>
       </c>
       <c r="AV17" s="1">
-        <v>992.035000</v>
+        <v>992.03499999999997</v>
       </c>
       <c r="AW17" s="1">
-        <v>-108.360000</v>
+        <v>-108.36</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>66900.368182</v>
+        <v>66900.368182000006</v>
       </c>
       <c r="AZ17" s="1">
-        <v>18.583436</v>
+        <v>18.583435999999999</v>
       </c>
       <c r="BA17" s="1">
-        <v>1000.270000</v>
+        <v>1000.27</v>
       </c>
       <c r="BB17" s="1">
-        <v>-123.836000</v>
+        <v>-123.836</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>66910.913126</v>
+        <v>66910.913125999999</v>
       </c>
       <c r="BE17" s="1">
-        <v>18.586365</v>
+        <v>18.586365000000001</v>
       </c>
       <c r="BF17" s="1">
-        <v>1038.930000</v>
+        <v>1038.93</v>
       </c>
       <c r="BG17" s="1">
-        <v>-195.283000</v>
+        <v>-195.28299999999999</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>66921.892568</v>
+        <v>66921.892567999996</v>
       </c>
       <c r="BJ17" s="1">
-        <v>18.589415</v>
+        <v>18.589414999999999</v>
       </c>
       <c r="BK17" s="1">
-        <v>1105.970000</v>
+        <v>1105.97</v>
       </c>
       <c r="BL17" s="1">
-        <v>-310.721000</v>
+        <v>-310.721</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>66932.301114</v>
+        <v>66932.301114000002</v>
       </c>
       <c r="BO17" s="1">
-        <v>18.592306</v>
+        <v>18.592306000000001</v>
       </c>
       <c r="BP17" s="1">
-        <v>1214.830000</v>
+        <v>1214.83</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-491.208000</v>
+        <v>-491.20800000000003</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>66943.622299</v>
+        <v>66943.622298999995</v>
       </c>
       <c r="BT17" s="1">
-        <v>18.595451</v>
+        <v>18.595451000000001</v>
       </c>
       <c r="BU17" s="1">
-        <v>1336.360000</v>
+        <v>1336.36</v>
       </c>
       <c r="BV17" s="1">
-        <v>-687.621000</v>
+        <v>-687.62099999999998</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>66954.780687</v>
+        <v>66954.780687000006</v>
       </c>
       <c r="BY17" s="1">
-        <v>18.598550</v>
+        <v>18.598549999999999</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1471.760000</v>
+        <v>1471.76</v>
       </c>
       <c r="CA17" s="1">
-        <v>-896.514000</v>
+        <v>-896.51400000000001</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>66966.877263</v>
+        <v>66966.877263000002</v>
       </c>
       <c r="CD17" s="1">
-        <v>18.601910</v>
+        <v>18.60191</v>
       </c>
       <c r="CE17" s="1">
-        <v>1823.720000</v>
+        <v>1823.72</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1390.380000</v>
+        <v>-1390.38</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>66793.888558</v>
+        <v>66793.888558000006</v>
       </c>
       <c r="B18" s="1">
-        <v>18.553858</v>
+        <v>18.553858000000002</v>
       </c>
       <c r="C18" s="1">
-        <v>898.326000</v>
+        <v>898.32600000000002</v>
       </c>
       <c r="D18" s="1">
-        <v>-203.055000</v>
+        <v>-203.05500000000001</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>66804.622979</v>
+        <v>66804.622979000007</v>
       </c>
       <c r="G18" s="1">
-        <v>18.556840</v>
+        <v>18.556840000000001</v>
       </c>
       <c r="H18" s="1">
-        <v>916.988000</v>
+        <v>916.98800000000006</v>
       </c>
       <c r="I18" s="1">
-        <v>-171.748000</v>
+        <v>-171.74799999999999</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>66815.113830</v>
+        <v>66815.113830000002</v>
       </c>
       <c r="L18" s="1">
-        <v>18.559754</v>
+        <v>18.559754000000002</v>
       </c>
       <c r="M18" s="1">
-        <v>941.322000</v>
+        <v>941.322</v>
       </c>
       <c r="N18" s="1">
-        <v>-122.282000</v>
+        <v>-122.282</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
         <v>66825.715849</v>
       </c>
       <c r="Q18" s="1">
-        <v>18.562699</v>
+        <v>18.562698999999999</v>
       </c>
       <c r="R18" s="1">
-        <v>948.356000</v>
+        <v>948.35599999999999</v>
       </c>
       <c r="S18" s="1">
-        <v>-105.484000</v>
+        <v>-105.48399999999999</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>66835.889290</v>
+        <v>66835.889290000006</v>
       </c>
       <c r="V18" s="1">
-        <v>18.565525</v>
+        <v>18.565525000000001</v>
       </c>
       <c r="W18" s="1">
-        <v>955.214000</v>
+        <v>955.21400000000006</v>
       </c>
       <c r="X18" s="1">
-        <v>-89.959700</v>
+        <v>-89.959699999999998</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>66846.381630</v>
+        <v>66846.381630000003</v>
       </c>
       <c r="AA18" s="1">
-        <v>18.568439</v>
+        <v>18.568439000000001</v>
       </c>
       <c r="AB18" s="1">
-        <v>962.554000</v>
+        <v>962.55399999999997</v>
       </c>
       <c r="AC18" s="1">
-        <v>-77.730500</v>
+        <v>-77.730500000000006</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
         <v>66857.126462</v>
@@ -4683,13 +5099,13 @@
         <v>18.571424</v>
       </c>
       <c r="AG18" s="1">
-        <v>966.412000</v>
+        <v>966.41200000000003</v>
       </c>
       <c r="AH18" s="1">
-        <v>-74.560900</v>
+        <v>-74.560900000000004</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
         <v>66867.662977</v>
@@ -4698,1630 +5114,1630 @@
         <v>18.574351</v>
       </c>
       <c r="AL18" s="1">
-        <v>973.948000</v>
+        <v>973.94799999999998</v>
       </c>
       <c r="AM18" s="1">
-        <v>-79.333800</v>
+        <v>-79.333799999999997</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>66878.547217</v>
+        <v>66878.547216999999</v>
       </c>
       <c r="AP18" s="1">
-        <v>18.577374</v>
+        <v>18.577373999999999</v>
       </c>
       <c r="AQ18" s="1">
-        <v>982.151000</v>
+        <v>982.15099999999995</v>
       </c>
       <c r="AR18" s="1">
-        <v>-90.805600</v>
+        <v>-90.805599999999998</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>66889.628306</v>
+        <v>66889.628305999999</v>
       </c>
       <c r="AU18" s="1">
-        <v>18.580452</v>
+        <v>18.580452000000001</v>
       </c>
       <c r="AV18" s="1">
-        <v>992.017000</v>
+        <v>992.01700000000005</v>
       </c>
       <c r="AW18" s="1">
-        <v>-108.342000</v>
+        <v>-108.342</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>66900.671769</v>
+        <v>66900.671768999993</v>
       </c>
       <c r="AZ18" s="1">
-        <v>18.583520</v>
+        <v>18.58352</v>
       </c>
       <c r="BA18" s="1">
-        <v>1000.260000</v>
+        <v>1000.26</v>
       </c>
       <c r="BB18" s="1">
-        <v>-123.831000</v>
+        <v>-123.831</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>66911.277686</v>
+        <v>66911.277686000001</v>
       </c>
       <c r="BE18" s="1">
-        <v>18.586466</v>
+        <v>18.586466000000001</v>
       </c>
       <c r="BF18" s="1">
-        <v>1038.940000</v>
+        <v>1038.94</v>
       </c>
       <c r="BG18" s="1">
-        <v>-195.294000</v>
+        <v>-195.29400000000001</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>66922.267047</v>
+        <v>66922.267047000001</v>
       </c>
       <c r="BJ18" s="1">
-        <v>18.589519</v>
+        <v>18.589518999999999</v>
       </c>
       <c r="BK18" s="1">
-        <v>1105.950000</v>
+        <v>1105.95</v>
       </c>
       <c r="BL18" s="1">
-        <v>-310.742000</v>
+        <v>-310.74200000000002</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>66932.720270</v>
+        <v>66932.720270000005</v>
       </c>
       <c r="BO18" s="1">
-        <v>18.592422</v>
+        <v>18.592421999999999</v>
       </c>
       <c r="BP18" s="1">
-        <v>1214.820000</v>
+        <v>1214.82</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-491.201000</v>
+        <v>-491.20100000000002</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>66944.055339</v>
+        <v>66944.055338999999</v>
       </c>
       <c r="BT18" s="1">
         <v>18.595571</v>
       </c>
       <c r="BU18" s="1">
-        <v>1336.300000</v>
+        <v>1336.3</v>
       </c>
       <c r="BV18" s="1">
-        <v>-687.666000</v>
+        <v>-687.66600000000005</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>66954.898381</v>
+        <v>66954.898381000006</v>
       </c>
       <c r="BY18" s="1">
-        <v>18.598583</v>
+        <v>18.598583000000001</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1471.880000</v>
+        <v>1471.88</v>
       </c>
       <c r="CA18" s="1">
-        <v>-896.508000</v>
+        <v>-896.50800000000004</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>66967.385131</v>
+        <v>66967.385131000003</v>
       </c>
       <c r="CD18" s="1">
-        <v>18.602051</v>
+        <v>18.602050999999999</v>
       </c>
       <c r="CE18" s="1">
-        <v>1823.230000</v>
+        <v>1823.23</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1389.310000</v>
+        <v>-1389.31</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>66794.549200</v>
+        <v>66794.549199999994</v>
       </c>
       <c r="B19" s="1">
-        <v>18.554041</v>
+        <v>18.554041000000002</v>
       </c>
       <c r="C19" s="1">
-        <v>898.492000</v>
+        <v>898.49199999999996</v>
       </c>
       <c r="D19" s="1">
-        <v>-203.115000</v>
+        <v>-203.11500000000001</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>66804.997923</v>
+        <v>66804.997923000003</v>
       </c>
       <c r="G19" s="1">
-        <v>18.556944</v>
+        <v>18.556944000000001</v>
       </c>
       <c r="H19" s="1">
-        <v>917.028000</v>
+        <v>917.02800000000002</v>
       </c>
       <c r="I19" s="1">
-        <v>-172.175000</v>
+        <v>-172.17500000000001</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>66815.495285</v>
+        <v>66815.495284999997</v>
       </c>
       <c r="L19" s="1">
-        <v>18.559860</v>
+        <v>18.55986</v>
       </c>
       <c r="M19" s="1">
-        <v>941.322000</v>
+        <v>941.322</v>
       </c>
       <c r="N19" s="1">
-        <v>-122.250000</v>
+        <v>-122.25</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>66826.063547</v>
+        <v>66826.063546999998</v>
       </c>
       <c r="Q19" s="1">
-        <v>18.562795</v>
+        <v>18.562795000000001</v>
       </c>
       <c r="R19" s="1">
-        <v>948.395000</v>
+        <v>948.39499999999998</v>
       </c>
       <c r="S19" s="1">
-        <v>-105.464000</v>
+        <v>-105.464</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>66836.233482</v>
+        <v>66836.233481999996</v>
       </c>
       <c r="V19" s="1">
-        <v>18.565620</v>
+        <v>18.565619999999999</v>
       </c>
       <c r="W19" s="1">
-        <v>955.173000</v>
+        <v>955.173</v>
       </c>
       <c r="X19" s="1">
-        <v>-89.974400</v>
+        <v>-89.974400000000003</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>66846.731309</v>
+        <v>66846.731308999995</v>
       </c>
       <c r="AA19" s="1">
-        <v>18.568536</v>
+        <v>18.568536000000002</v>
       </c>
       <c r="AB19" s="1">
-        <v>962.439000</v>
+        <v>962.43899999999996</v>
       </c>
       <c r="AC19" s="1">
-        <v>-77.806800</v>
+        <v>-77.806799999999996</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>66857.550045</v>
+        <v>66857.550044999996</v>
       </c>
       <c r="AF19" s="1">
-        <v>18.571542</v>
+        <v>18.571542000000001</v>
       </c>
       <c r="AG19" s="1">
-        <v>966.454000</v>
+        <v>966.45399999999995</v>
       </c>
       <c r="AH19" s="1">
-        <v>-74.616900</v>
+        <v>-74.616900000000001</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>66868.092512</v>
+        <v>66868.092512000003</v>
       </c>
       <c r="AK19" s="1">
-        <v>18.574470</v>
+        <v>18.574470000000002</v>
       </c>
       <c r="AL19" s="1">
-        <v>973.949000</v>
+        <v>973.94899999999996</v>
       </c>
       <c r="AM19" s="1">
-        <v>-79.341300</v>
+        <v>-79.341300000000004</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>66878.855728</v>
+        <v>66878.855727999995</v>
       </c>
       <c r="AP19" s="1">
-        <v>18.577460</v>
+        <v>18.577459999999999</v>
       </c>
       <c r="AQ19" s="1">
-        <v>982.146000</v>
+        <v>982.14599999999996</v>
       </c>
       <c r="AR19" s="1">
-        <v>-90.810900</v>
+        <v>-90.810900000000004</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>66889.992370</v>
+        <v>66889.992370000007</v>
       </c>
       <c r="AU19" s="1">
-        <v>18.580553</v>
+        <v>18.580552999999998</v>
       </c>
       <c r="AV19" s="1">
-        <v>992.012000</v>
+        <v>992.01199999999994</v>
       </c>
       <c r="AW19" s="1">
-        <v>-108.320000</v>
+        <v>-108.32</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>66901.033316</v>
+        <v>66901.033316000001</v>
       </c>
       <c r="AZ19" s="1">
-        <v>18.583620</v>
+        <v>18.58362</v>
       </c>
       <c r="BA19" s="1">
-        <v>1000.260000</v>
+        <v>1000.26</v>
       </c>
       <c r="BB19" s="1">
-        <v>-123.829000</v>
+        <v>-123.82899999999999</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>66911.638775</v>
+        <v>66911.638774999999</v>
       </c>
       <c r="BE19" s="1">
-        <v>18.586566</v>
+        <v>18.586566000000001</v>
       </c>
       <c r="BF19" s="1">
-        <v>1038.930000</v>
+        <v>1038.93</v>
       </c>
       <c r="BG19" s="1">
-        <v>-195.294000</v>
+        <v>-195.29400000000001</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>66922.677266</v>
+        <v>66922.677265999999</v>
       </c>
       <c r="BJ19" s="1">
-        <v>18.589633</v>
+        <v>18.589632999999999</v>
       </c>
       <c r="BK19" s="1">
-        <v>1105.990000</v>
+        <v>1105.99</v>
       </c>
       <c r="BL19" s="1">
-        <v>-310.707000</v>
+        <v>-310.70699999999999</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>66933.537642</v>
+        <v>66933.537641999996</v>
       </c>
       <c r="BO19" s="1">
-        <v>18.592649</v>
+        <v>18.592649000000002</v>
       </c>
       <c r="BP19" s="1">
-        <v>1214.840000</v>
+        <v>1214.8399999999999</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-491.184000</v>
+        <v>-491.18400000000003</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>66944.481665</v>
+        <v>66944.481664999999</v>
       </c>
       <c r="BT19" s="1">
         <v>18.595689</v>
       </c>
       <c r="BU19" s="1">
-        <v>1336.280000</v>
+        <v>1336.28</v>
       </c>
       <c r="BV19" s="1">
-        <v>-687.687000</v>
+        <v>-687.68700000000001</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>66955.326430</v>
+        <v>66955.326430000001</v>
       </c>
       <c r="BY19" s="1">
-        <v>18.598702</v>
+        <v>18.598701999999999</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1471.870000</v>
+        <v>1471.87</v>
       </c>
       <c r="CA19" s="1">
-        <v>-896.490000</v>
+        <v>-896.49</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>66967.913898</v>
+        <v>66967.913897999999</v>
       </c>
       <c r="CD19" s="1">
-        <v>18.602198</v>
+        <v>18.602198000000001</v>
       </c>
       <c r="CE19" s="1">
-        <v>1822.130000</v>
+        <v>1822.13</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1389.970000</v>
+        <v>-1389.97</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>66794.913760</v>
+        <v>66794.913759999996</v>
       </c>
       <c r="B20" s="1">
         <v>18.554143</v>
       </c>
       <c r="C20" s="1">
-        <v>898.418000</v>
+        <v>898.41800000000001</v>
       </c>
       <c r="D20" s="1">
-        <v>-202.932000</v>
+        <v>-202.93199999999999</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>66805.341153</v>
+        <v>66805.341153000001</v>
       </c>
       <c r="G20" s="1">
         <v>18.557039</v>
       </c>
       <c r="H20" s="1">
-        <v>916.887000</v>
+        <v>916.88699999999994</v>
       </c>
       <c r="I20" s="1">
-        <v>-172.346000</v>
+        <v>-172.346</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>66815.839972</v>
+        <v>66815.839972000002</v>
       </c>
       <c r="L20" s="1">
         <v>18.559956</v>
       </c>
       <c r="M20" s="1">
-        <v>941.362000</v>
+        <v>941.36199999999997</v>
       </c>
       <c r="N20" s="1">
-        <v>-122.085000</v>
+        <v>-122.08499999999999</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>66826.414678</v>
+        <v>66826.414678000001</v>
       </c>
       <c r="Q20" s="1">
-        <v>18.562893</v>
+        <v>18.562892999999999</v>
       </c>
       <c r="R20" s="1">
-        <v>948.398000</v>
+        <v>948.39800000000002</v>
       </c>
       <c r="S20" s="1">
-        <v>-105.502000</v>
+        <v>-105.502</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>66836.648138</v>
+        <v>66836.648138000004</v>
       </c>
       <c r="V20" s="1">
-        <v>18.565736</v>
+        <v>18.565736000000001</v>
       </c>
       <c r="W20" s="1">
-        <v>955.253000</v>
+        <v>955.25300000000004</v>
       </c>
       <c r="X20" s="1">
-        <v>-89.951600</v>
+        <v>-89.951599999999999</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>66847.152939</v>
+        <v>66847.152939000007</v>
       </c>
       <c r="AA20" s="1">
-        <v>18.568654</v>
+        <v>18.568653999999999</v>
       </c>
       <c r="AB20" s="1">
-        <v>962.458000</v>
+        <v>962.45799999999997</v>
       </c>
       <c r="AC20" s="1">
-        <v>-77.770500</v>
+        <v>-77.770499999999998</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>66857.841233</v>
+        <v>66857.841232999999</v>
       </c>
       <c r="AF20" s="1">
-        <v>18.571623</v>
+        <v>18.571622999999999</v>
       </c>
       <c r="AG20" s="1">
-        <v>966.301000</v>
+        <v>966.30100000000004</v>
       </c>
       <c r="AH20" s="1">
-        <v>-74.618900</v>
+        <v>-74.618899999999996</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>66868.371262</v>
+        <v>66868.371262000001</v>
       </c>
       <c r="AK20" s="1">
         <v>18.574548</v>
       </c>
       <c r="AL20" s="1">
-        <v>973.945000</v>
+        <v>973.94500000000005</v>
       </c>
       <c r="AM20" s="1">
-        <v>-79.323800</v>
+        <v>-79.323800000000006</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>66879.217777</v>
+        <v>66879.217776999998</v>
       </c>
       <c r="AP20" s="1">
-        <v>18.577560</v>
+        <v>18.577559999999998</v>
       </c>
       <c r="AQ20" s="1">
-        <v>982.148000</v>
+        <v>982.14800000000002</v>
       </c>
       <c r="AR20" s="1">
-        <v>-90.814700</v>
+        <v>-90.814700000000002</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>66890.356966</v>
+        <v>66890.356966000007</v>
       </c>
       <c r="AU20" s="1">
         <v>18.580655</v>
       </c>
       <c r="AV20" s="1">
-        <v>992.029000</v>
+        <v>992.029</v>
       </c>
       <c r="AW20" s="1">
-        <v>-108.352000</v>
+        <v>-108.352</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>66901.389940</v>
+        <v>66901.389939999994</v>
       </c>
       <c r="AZ20" s="1">
-        <v>18.583719</v>
+        <v>18.583718999999999</v>
       </c>
       <c r="BA20" s="1">
-        <v>1000.250000</v>
+        <v>1000.25</v>
       </c>
       <c r="BB20" s="1">
-        <v>-123.847000</v>
+        <v>-123.84699999999999</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>66912.358964</v>
+        <v>66912.358963999999</v>
       </c>
       <c r="BE20" s="1">
-        <v>18.586766</v>
+        <v>18.586766000000001</v>
       </c>
       <c r="BF20" s="1">
-        <v>1038.930000</v>
+        <v>1038.93</v>
       </c>
       <c r="BG20" s="1">
-        <v>-195.278000</v>
+        <v>-195.27799999999999</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>66923.040311</v>
+        <v>66923.040311000004</v>
       </c>
       <c r="BJ20" s="1">
-        <v>18.589733</v>
+        <v>18.589732999999999</v>
       </c>
       <c r="BK20" s="1">
-        <v>1105.970000</v>
+        <v>1105.97</v>
       </c>
       <c r="BL20" s="1">
-        <v>-310.714000</v>
+        <v>-310.714</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>66933.953820</v>
+        <v>66933.953819999995</v>
       </c>
       <c r="BO20" s="1">
         <v>18.592765</v>
       </c>
       <c r="BP20" s="1">
-        <v>1214.830000</v>
+        <v>1214.83</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-491.170000</v>
+        <v>-491.17</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>66944.891575</v>
+        <v>66944.891575000001</v>
       </c>
       <c r="BT20" s="1">
         <v>18.595803</v>
       </c>
       <c r="BU20" s="1">
-        <v>1336.320000</v>
+        <v>1336.32</v>
       </c>
       <c r="BV20" s="1">
-        <v>-687.802000</v>
+        <v>-687.80200000000002</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>66956.054028</v>
+        <v>66956.054027999999</v>
       </c>
       <c r="BY20" s="1">
-        <v>18.598904</v>
+        <v>18.598904000000001</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1471.830000</v>
+        <v>1471.83</v>
       </c>
       <c r="CA20" s="1">
-        <v>-896.512000</v>
+        <v>-896.51199999999994</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
         <v>66968.726811</v>
       </c>
       <c r="CD20" s="1">
-        <v>18.602424</v>
+        <v>18.602423999999999</v>
       </c>
       <c r="CE20" s="1">
-        <v>1823.120000</v>
+        <v>1823.12</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1390.850000</v>
+        <v>-1390.85</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>66795.258508</v>
+        <v>66795.258507999999</v>
       </c>
       <c r="B21" s="1">
-        <v>18.554238</v>
+        <v>18.554238000000002</v>
       </c>
       <c r="C21" s="1">
-        <v>898.376000</v>
+        <v>898.37599999999998</v>
       </c>
       <c r="D21" s="1">
-        <v>-202.885000</v>
+        <v>-202.88499999999999</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>66805.686370</v>
+        <v>66805.686369999996</v>
       </c>
       <c r="G21" s="1">
-        <v>18.557135</v>
+        <v>18.557134999999999</v>
       </c>
       <c r="H21" s="1">
-        <v>916.939000</v>
+        <v>916.93899999999996</v>
       </c>
       <c r="I21" s="1">
-        <v>-171.978000</v>
+        <v>-171.97800000000001</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>66816.186180</v>
+        <v>66816.186180000004</v>
       </c>
       <c r="L21" s="1">
-        <v>18.560052</v>
+        <v>18.560051999999999</v>
       </c>
       <c r="M21" s="1">
-        <v>941.487000</v>
+        <v>941.48699999999997</v>
       </c>
       <c r="N21" s="1">
-        <v>-122.226000</v>
+        <v>-122.226</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>66826.829831</v>
+        <v>66826.829830999995</v>
       </c>
       <c r="Q21" s="1">
         <v>18.563008</v>
       </c>
       <c r="R21" s="1">
-        <v>948.401000</v>
+        <v>948.40099999999995</v>
       </c>
       <c r="S21" s="1">
-        <v>-105.555000</v>
+        <v>-105.55500000000001</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>66836.930360</v>
+        <v>66836.930359999998</v>
       </c>
       <c r="V21" s="1">
         <v>18.565814</v>
       </c>
       <c r="W21" s="1">
-        <v>955.147000</v>
+        <v>955.14700000000005</v>
       </c>
       <c r="X21" s="1">
-        <v>-89.972200</v>
+        <v>-89.972200000000001</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>66847.440247</v>
+        <v>66847.440247000006</v>
       </c>
       <c r="AA21" s="1">
-        <v>18.568733</v>
+        <v>18.568733000000002</v>
       </c>
       <c r="AB21" s="1">
-        <v>962.495000</v>
+        <v>962.495</v>
       </c>
       <c r="AC21" s="1">
-        <v>-77.750400</v>
+        <v>-77.750399999999999</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>66858.184956</v>
+        <v>66858.184955999997</v>
       </c>
       <c r="AF21" s="1">
-        <v>18.571718</v>
+        <v>18.571718000000001</v>
       </c>
       <c r="AG21" s="1">
-        <v>966.343000</v>
+        <v>966.34299999999996</v>
       </c>
       <c r="AH21" s="1">
-        <v>-74.657000</v>
+        <v>-74.656999999999996</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>66868.718958</v>
+        <v>66868.718957999998</v>
       </c>
       <c r="AK21" s="1">
-        <v>18.574644</v>
+        <v>18.574643999999999</v>
       </c>
       <c r="AL21" s="1">
-        <v>973.968000</v>
+        <v>973.96799999999996</v>
       </c>
       <c r="AM21" s="1">
-        <v>-79.333400</v>
+        <v>-79.333399999999997</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>66879.576385</v>
+        <v>66879.576384999993</v>
       </c>
       <c r="AP21" s="1">
-        <v>18.577660</v>
+        <v>18.577660000000002</v>
       </c>
       <c r="AQ21" s="1">
-        <v>982.131000</v>
+        <v>982.13099999999997</v>
       </c>
       <c r="AR21" s="1">
-        <v>-90.810400</v>
+        <v>-90.810400000000001</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>66891.085566</v>
+        <v>66891.085565999994</v>
       </c>
       <c r="AU21" s="1">
-        <v>18.580857</v>
+        <v>18.580857000000002</v>
       </c>
       <c r="AV21" s="1">
-        <v>992.006000</v>
+        <v>992.00599999999997</v>
       </c>
       <c r="AW21" s="1">
-        <v>-108.323000</v>
+        <v>-108.32299999999999</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>66902.109139</v>
+        <v>66902.109138999993</v>
       </c>
       <c r="AZ21" s="1">
-        <v>18.583919</v>
+        <v>18.583919000000002</v>
       </c>
       <c r="BA21" s="1">
-        <v>1000.250000</v>
+        <v>1000.25</v>
       </c>
       <c r="BB21" s="1">
-        <v>-123.853000</v>
+        <v>-123.85299999999999</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>66912.721540</v>
+        <v>66912.721539999999</v>
       </c>
       <c r="BE21" s="1">
-        <v>18.586867</v>
+        <v>18.586867000000002</v>
       </c>
       <c r="BF21" s="1">
-        <v>1038.930000</v>
+        <v>1038.93</v>
       </c>
       <c r="BG21" s="1">
-        <v>-195.313000</v>
+        <v>-195.31299999999999</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>66923.413797</v>
+        <v>66923.413797000001</v>
       </c>
       <c r="BJ21" s="1">
-        <v>18.589837</v>
+        <v>18.589836999999999</v>
       </c>
       <c r="BK21" s="1">
-        <v>1106.000000</v>
+        <v>1106</v>
       </c>
       <c r="BL21" s="1">
-        <v>-310.737000</v>
+        <v>-310.73700000000002</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>66934.350585</v>
+        <v>66934.350584999993</v>
       </c>
       <c r="BO21" s="1">
-        <v>18.592875</v>
+        <v>18.592874999999999</v>
       </c>
       <c r="BP21" s="1">
-        <v>1214.850000</v>
+        <v>1214.8499999999999</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-491.193000</v>
+        <v>-491.19299999999998</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>66945.640025</v>
+        <v>66945.640025000001</v>
       </c>
       <c r="BT21" s="1">
-        <v>18.596011</v>
+        <v>18.596011000000001</v>
       </c>
       <c r="BU21" s="1">
-        <v>1336.310000</v>
+        <v>1336.31</v>
       </c>
       <c r="BV21" s="1">
-        <v>-687.827000</v>
+        <v>-687.827</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>66956.189468</v>
+        <v>66956.189467999997</v>
       </c>
       <c r="BY21" s="1">
-        <v>18.598942</v>
+        <v>18.598942000000001</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1471.790000</v>
+        <v>1471.79</v>
       </c>
       <c r="CA21" s="1">
-        <v>-896.429000</v>
+        <v>-896.42899999999997</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>66968.946236</v>
+        <v>66968.946236000003</v>
       </c>
       <c r="CD21" s="1">
-        <v>18.602485</v>
+        <v>18.602485000000001</v>
       </c>
       <c r="CE21" s="1">
-        <v>1823.700000</v>
+        <v>1823.7</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1389.960000</v>
+        <v>-1389.96</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>66795.598238</v>
+        <v>66795.598238000006</v>
       </c>
       <c r="B22" s="1">
         <v>18.554333</v>
       </c>
       <c r="C22" s="1">
-        <v>898.424000</v>
+        <v>898.42399999999998</v>
       </c>
       <c r="D22" s="1">
-        <v>-202.968000</v>
+        <v>-202.96799999999999</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>66806.102018</v>
+        <v>66806.102018000005</v>
       </c>
       <c r="G22" s="1">
-        <v>18.557251</v>
+        <v>18.557251000000001</v>
       </c>
       <c r="H22" s="1">
-        <v>917.220000</v>
+        <v>917.22</v>
       </c>
       <c r="I22" s="1">
-        <v>-171.841000</v>
+        <v>-171.84100000000001</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>66816.616212</v>
+        <v>66816.616211999994</v>
       </c>
       <c r="L22" s="1">
         <v>18.560171</v>
       </c>
       <c r="M22" s="1">
-        <v>941.410000</v>
+        <v>941.41</v>
       </c>
       <c r="N22" s="1">
-        <v>-122.187000</v>
+        <v>-122.187</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>66827.123462</v>
+        <v>66827.123462000003</v>
       </c>
       <c r="Q22" s="1">
-        <v>18.563090</v>
+        <v>18.563089999999999</v>
       </c>
       <c r="R22" s="1">
-        <v>948.378000</v>
+        <v>948.37800000000004</v>
       </c>
       <c r="S22" s="1">
-        <v>-105.528000</v>
+        <v>-105.52800000000001</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>66837.273593</v>
+        <v>66837.273593000005</v>
       </c>
       <c r="V22" s="1">
-        <v>18.565909</v>
+        <v>18.565909000000001</v>
       </c>
       <c r="W22" s="1">
-        <v>955.153000</v>
+        <v>955.15300000000002</v>
       </c>
       <c r="X22" s="1">
-        <v>-90.039800</v>
+        <v>-90.0398</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>66847.787291</v>
+        <v>66847.787291000001</v>
       </c>
       <c r="AA22" s="1">
-        <v>18.568830</v>
+        <v>18.568829999999998</v>
       </c>
       <c r="AB22" s="1">
-        <v>962.506000</v>
+        <v>962.50599999999997</v>
       </c>
       <c r="AC22" s="1">
-        <v>-77.768200</v>
+        <v>-77.768199999999993</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>66858.530139</v>
+        <v>66858.530138999995</v>
       </c>
       <c r="AF22" s="1">
         <v>18.571814</v>
       </c>
       <c r="AG22" s="1">
-        <v>966.418000</v>
+        <v>966.41800000000001</v>
       </c>
       <c r="AH22" s="1">
-        <v>-74.553300</v>
+        <v>-74.553299999999993</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>66869.068173</v>
+        <v>66869.068173000007</v>
       </c>
       <c r="AK22" s="1">
         <v>18.574741</v>
       </c>
       <c r="AL22" s="1">
-        <v>973.946000</v>
+        <v>973.94600000000003</v>
       </c>
       <c r="AM22" s="1">
-        <v>-79.335400</v>
+        <v>-79.335400000000007</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>66880.297568</v>
+        <v>66880.297567999994</v>
       </c>
       <c r="AP22" s="1">
-        <v>18.577860</v>
+        <v>18.577860000000001</v>
       </c>
       <c r="AQ22" s="1">
-        <v>982.149000</v>
+        <v>982.149</v>
       </c>
       <c r="AR22" s="1">
-        <v>-90.823800</v>
+        <v>-90.823800000000006</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>66891.475408</v>
+        <v>66891.475407999998</v>
       </c>
       <c r="AU22" s="1">
-        <v>18.580965</v>
+        <v>18.580964999999999</v>
       </c>
       <c r="AV22" s="1">
-        <v>992.015000</v>
+        <v>992.01499999999999</v>
       </c>
       <c r="AW22" s="1">
-        <v>-108.336000</v>
+        <v>-108.336</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>66902.468242</v>
+        <v>66902.468242000003</v>
       </c>
       <c r="AZ22" s="1">
-        <v>18.584019</v>
+        <v>18.584019000000001</v>
       </c>
       <c r="BA22" s="1">
-        <v>1000.250000</v>
+        <v>1000.25</v>
       </c>
       <c r="BB22" s="1">
-        <v>-123.840000</v>
+        <v>-123.84</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>66913.082627</v>
+        <v>66913.082626999996</v>
       </c>
       <c r="BE22" s="1">
-        <v>18.586967</v>
+        <v>18.586967000000001</v>
       </c>
       <c r="BF22" s="1">
-        <v>1038.940000</v>
+        <v>1038.94</v>
       </c>
       <c r="BG22" s="1">
-        <v>-195.296000</v>
+        <v>-195.29599999999999</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>66924.100808</v>
+        <v>66924.100808000003</v>
       </c>
       <c r="BJ22" s="1">
         <v>18.590028</v>
       </c>
       <c r="BK22" s="1">
-        <v>1105.960000</v>
+        <v>1105.96</v>
       </c>
       <c r="BL22" s="1">
-        <v>-310.689000</v>
+        <v>-310.68900000000002</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>66935.086150</v>
+        <v>66935.086150000003</v>
       </c>
       <c r="BO22" s="1">
-        <v>18.593079</v>
+        <v>18.593078999999999</v>
       </c>
       <c r="BP22" s="1">
-        <v>1214.830000</v>
+        <v>1214.83</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-491.195000</v>
+        <v>-491.19499999999999</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>66945.755096</v>
+        <v>66945.755095999994</v>
       </c>
       <c r="BT22" s="1">
-        <v>18.596043</v>
+        <v>18.596043000000002</v>
       </c>
       <c r="BU22" s="1">
-        <v>1336.290000</v>
+        <v>1336.29</v>
       </c>
       <c r="BV22" s="1">
-        <v>-687.910000</v>
+        <v>-687.91</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>66956.611065</v>
+        <v>66956.611065000005</v>
       </c>
       <c r="BY22" s="1">
         <v>18.599059</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1471.890000</v>
+        <v>1471.89</v>
       </c>
       <c r="CA22" s="1">
-        <v>-896.477000</v>
+        <v>-896.47699999999998</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>66969.469851</v>
+        <v>66969.469851000002</v>
       </c>
       <c r="CD22" s="1">
-        <v>18.602631</v>
+        <v>18.602630999999999</v>
       </c>
       <c r="CE22" s="1">
-        <v>1823.670000</v>
+        <v>1823.67</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1389.680000</v>
+        <v>-1389.68</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
         <v>66796.016894</v>
       </c>
       <c r="B23" s="1">
-        <v>18.554449</v>
+        <v>18.554449000000002</v>
       </c>
       <c r="C23" s="1">
-        <v>898.416000</v>
+        <v>898.41600000000005</v>
       </c>
       <c r="D23" s="1">
-        <v>-202.938000</v>
+        <v>-202.93799999999999</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>66806.382258</v>
+        <v>66806.382257999998</v>
       </c>
       <c r="G23" s="1">
-        <v>18.557328</v>
+        <v>18.557327999999998</v>
       </c>
       <c r="H23" s="1">
-        <v>916.955000</v>
+        <v>916.95500000000004</v>
       </c>
       <c r="I23" s="1">
-        <v>-171.924000</v>
+        <v>-171.92400000000001</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>66816.898932</v>
+        <v>66816.898931999996</v>
       </c>
       <c r="L23" s="1">
-        <v>18.560250</v>
+        <v>18.56025</v>
       </c>
       <c r="M23" s="1">
-        <v>941.309000</v>
+        <v>941.30899999999997</v>
       </c>
       <c r="N23" s="1">
-        <v>-122.292000</v>
+        <v>-122.292</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>66827.470660</v>
+        <v>66827.470660000006</v>
       </c>
       <c r="Q23" s="1">
-        <v>18.563186</v>
+        <v>18.563186000000002</v>
       </c>
       <c r="R23" s="1">
-        <v>948.356000</v>
+        <v>948.35599999999999</v>
       </c>
       <c r="S23" s="1">
-        <v>-105.536000</v>
+        <v>-105.536</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>66837.616823</v>
+        <v>66837.616823000004</v>
       </c>
       <c r="V23" s="1">
-        <v>18.566005</v>
+        <v>18.566005000000001</v>
       </c>
       <c r="W23" s="1">
-        <v>955.162000</v>
+        <v>955.16200000000003</v>
       </c>
       <c r="X23" s="1">
-        <v>-90.113800</v>
+        <v>-90.113799999999998</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>66848.137501</v>
+        <v>66848.137501000005</v>
       </c>
       <c r="AA23" s="1">
-        <v>18.568927</v>
+        <v>18.568926999999999</v>
       </c>
       <c r="AB23" s="1">
-        <v>962.446000</v>
+        <v>962.44600000000003</v>
       </c>
       <c r="AC23" s="1">
-        <v>-77.803900</v>
+        <v>-77.803899999999999</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>66859.215116</v>
+        <v>66859.215116000007</v>
       </c>
       <c r="AF23" s="1">
         <v>18.572004</v>
       </c>
       <c r="AG23" s="1">
-        <v>966.305000</v>
+        <v>966.30499999999995</v>
       </c>
       <c r="AH23" s="1">
-        <v>-74.337000</v>
+        <v>-74.337000000000003</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>66869.763057</v>
+        <v>66869.763057000004</v>
       </c>
       <c r="AK23" s="1">
-        <v>18.574934</v>
+        <v>18.574933999999999</v>
       </c>
       <c r="AL23" s="1">
-        <v>973.927000</v>
+        <v>973.92700000000002</v>
       </c>
       <c r="AM23" s="1">
-        <v>-79.338200</v>
+        <v>-79.338200000000001</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>66880.659150</v>
+        <v>66880.659150000007</v>
       </c>
       <c r="AP23" s="1">
-        <v>18.577961</v>
+        <v>18.577960999999998</v>
       </c>
       <c r="AQ23" s="1">
-        <v>982.152000</v>
+        <v>982.15200000000004</v>
       </c>
       <c r="AR23" s="1">
-        <v>-90.785700</v>
+        <v>-90.785700000000006</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>66891.841487</v>
+        <v>66891.841486999998</v>
       </c>
       <c r="AU23" s="1">
-        <v>18.581067</v>
+        <v>18.581067000000001</v>
       </c>
       <c r="AV23" s="1">
-        <v>992.016000</v>
+        <v>992.01599999999996</v>
       </c>
       <c r="AW23" s="1">
-        <v>-108.328000</v>
+        <v>-108.328</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>66902.827346</v>
+        <v>66902.827346000005</v>
       </c>
       <c r="AZ23" s="1">
-        <v>18.584119</v>
+        <v>18.584119000000001</v>
       </c>
       <c r="BA23" s="1">
-        <v>1000.240000</v>
+        <v>1000.24</v>
       </c>
       <c r="BB23" s="1">
-        <v>-123.851000</v>
+        <v>-123.851</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>66913.752723</v>
+        <v>66913.752722999998</v>
       </c>
       <c r="BE23" s="1">
-        <v>18.587154</v>
+        <v>18.587154000000002</v>
       </c>
       <c r="BF23" s="1">
-        <v>1038.940000</v>
+        <v>1038.94</v>
       </c>
       <c r="BG23" s="1">
-        <v>-195.284000</v>
+        <v>-195.28399999999999</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>66924.540212</v>
+        <v>66924.540212000007</v>
       </c>
       <c r="BJ23" s="1">
-        <v>18.590150</v>
+        <v>18.590150000000001</v>
       </c>
       <c r="BK23" s="1">
-        <v>1105.940000</v>
+        <v>1105.94</v>
       </c>
       <c r="BL23" s="1">
-        <v>-310.714000</v>
+        <v>-310.714</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>66935.591573</v>
+        <v>66935.591572999998</v>
       </c>
       <c r="BO23" s="1">
-        <v>18.593220</v>
+        <v>18.593219999999999</v>
       </c>
       <c r="BP23" s="1">
-        <v>1214.840000</v>
+        <v>1214.8399999999999</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-491.191000</v>
+        <v>-491.19099999999997</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>66946.192073</v>
+        <v>66946.192072999998</v>
       </c>
       <c r="BT23" s="1">
-        <v>18.596164</v>
+        <v>18.596164000000002</v>
       </c>
       <c r="BU23" s="1">
-        <v>1336.270000</v>
+        <v>1336.27</v>
       </c>
       <c r="BV23" s="1">
-        <v>-688.028000</v>
+        <v>-688.02800000000002</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>66957.037595</v>
+        <v>66957.037595000002</v>
       </c>
       <c r="BY23" s="1">
-        <v>18.599177</v>
+        <v>18.599177000000001</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1471.730000</v>
+        <v>1471.73</v>
       </c>
       <c r="CA23" s="1">
-        <v>-896.434000</v>
+        <v>-896.43399999999997</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>66970.019882</v>
+        <v>66970.019881999993</v>
       </c>
       <c r="CD23" s="1">
-        <v>18.602783</v>
+        <v>18.602782999999999</v>
       </c>
       <c r="CE23" s="1">
-        <v>1824.040000</v>
+        <v>1824.04</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1390.530000</v>
+        <v>-1390.53</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>66796.298622</v>
+        <v>66796.298622000002</v>
       </c>
       <c r="B24" s="1">
         <v>18.554527</v>
       </c>
       <c r="C24" s="1">
-        <v>898.539000</v>
+        <v>898.53899999999999</v>
       </c>
       <c r="D24" s="1">
-        <v>-202.850000</v>
+        <v>-202.85</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>66806.725985</v>
+        <v>66806.725984999997</v>
       </c>
       <c r="G24" s="1">
-        <v>18.557424</v>
+        <v>18.557424000000001</v>
       </c>
       <c r="H24" s="1">
-        <v>916.949000</v>
+        <v>916.94899999999996</v>
       </c>
       <c r="I24" s="1">
-        <v>-172.455000</v>
+        <v>-172.45500000000001</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>66817.245636</v>
+        <v>66817.245636000007</v>
       </c>
       <c r="L24" s="1">
-        <v>18.560346</v>
+        <v>18.560345999999999</v>
       </c>
       <c r="M24" s="1">
-        <v>941.425000</v>
+        <v>941.42499999999995</v>
       </c>
       <c r="N24" s="1">
-        <v>-122.266000</v>
+        <v>-122.26600000000001</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>66827.819845</v>
+        <v>66827.819845000005</v>
       </c>
       <c r="Q24" s="1">
-        <v>18.563283</v>
+        <v>18.563282999999998</v>
       </c>
       <c r="R24" s="1">
-        <v>948.369000</v>
+        <v>948.36900000000003</v>
       </c>
       <c r="S24" s="1">
-        <v>-105.478000</v>
+        <v>-105.47799999999999</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>66838.303782</v>
+        <v>66838.303782000003</v>
       </c>
       <c r="V24" s="1">
         <v>18.566195</v>
       </c>
       <c r="W24" s="1">
-        <v>955.156000</v>
+        <v>955.15599999999995</v>
       </c>
       <c r="X24" s="1">
-        <v>-90.099900</v>
+        <v>-90.099900000000005</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>66848.835338</v>
+        <v>66848.835338000004</v>
       </c>
       <c r="AA24" s="1">
-        <v>18.569121</v>
+        <v>18.569120999999999</v>
       </c>
       <c r="AB24" s="1">
-        <v>962.442000</v>
+        <v>962.44200000000001</v>
       </c>
       <c r="AC24" s="1">
-        <v>-77.833500</v>
+        <v>-77.833500000000001</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>66859.560827</v>
+        <v>66859.560826999994</v>
       </c>
       <c r="AF24" s="1">
-        <v>18.572100</v>
+        <v>18.572099999999999</v>
       </c>
       <c r="AG24" s="1">
-        <v>966.420000</v>
+        <v>966.42</v>
       </c>
       <c r="AH24" s="1">
-        <v>-74.483500</v>
+        <v>-74.483500000000006</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>66870.104284</v>
+        <v>66870.104284000001</v>
       </c>
       <c r="AK24" s="1">
-        <v>18.575029</v>
+        <v>18.575029000000001</v>
       </c>
       <c r="AL24" s="1">
-        <v>973.945000</v>
+        <v>973.94500000000005</v>
       </c>
       <c r="AM24" s="1">
-        <v>-79.323100</v>
+        <v>-79.323099999999997</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>66881.018255</v>
+        <v>66881.018255000003</v>
       </c>
       <c r="AP24" s="1">
-        <v>18.578061</v>
+        <v>18.578061000000002</v>
       </c>
       <c r="AQ24" s="1">
-        <v>982.156000</v>
+        <v>982.15599999999995</v>
       </c>
       <c r="AR24" s="1">
-        <v>-90.794400</v>
+        <v>-90.794399999999996</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>66892.528911</v>
+        <v>66892.528911000001</v>
       </c>
       <c r="AU24" s="1">
-        <v>18.581258</v>
+        <v>18.581257999999998</v>
       </c>
       <c r="AV24" s="1">
-        <v>992.015000</v>
+        <v>992.01499999999999</v>
       </c>
       <c r="AW24" s="1">
-        <v>-108.342000</v>
+        <v>-108.342</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>66903.555968</v>
+        <v>66903.555968000001</v>
       </c>
       <c r="AZ24" s="1">
-        <v>18.584321</v>
+        <v>18.584320999999999</v>
       </c>
       <c r="BA24" s="1">
-        <v>1000.240000</v>
+        <v>1000.24</v>
       </c>
       <c r="BB24" s="1">
-        <v>-123.855000</v>
+        <v>-123.855</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>66914.201106</v>
+        <v>66914.201105999993</v>
       </c>
       <c r="BE24" s="1">
-        <v>18.587278</v>
+        <v>18.587278000000001</v>
       </c>
       <c r="BF24" s="1">
-        <v>1038.940000</v>
+        <v>1038.94</v>
       </c>
       <c r="BG24" s="1">
-        <v>-195.274000</v>
+        <v>-195.274</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>66924.914196</v>
+        <v>66924.914195999998</v>
       </c>
       <c r="BJ24" s="1">
-        <v>18.590254</v>
+        <v>18.590254000000002</v>
       </c>
       <c r="BK24" s="1">
-        <v>1105.980000</v>
+        <v>1105.98</v>
       </c>
       <c r="BL24" s="1">
-        <v>-310.723000</v>
+        <v>-310.72300000000001</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
         <v>66936.007717</v>
@@ -6330,574 +6746,575 @@
         <v>18.593335</v>
       </c>
       <c r="BP24" s="1">
-        <v>1214.810000</v>
+        <v>1214.81</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-491.157000</v>
+        <v>-491.15699999999998</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>66946.602264</v>
+        <v>66946.602264000001</v>
       </c>
       <c r="BT24" s="1">
-        <v>18.596278</v>
+        <v>18.596278000000002</v>
       </c>
       <c r="BU24" s="1">
-        <v>1336.360000</v>
+        <v>1336.36</v>
       </c>
       <c r="BV24" s="1">
-        <v>-688.026000</v>
+        <v>-688.02599999999995</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>66957.462170</v>
+        <v>66957.462169999999</v>
       </c>
       <c r="BY24" s="1">
-        <v>18.599295</v>
+        <v>18.599295000000001</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1471.790000</v>
+        <v>1471.79</v>
       </c>
       <c r="CA24" s="1">
-        <v>-896.471000</v>
+        <v>-896.471</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>66970.551095</v>
+        <v>66970.551095000003</v>
       </c>
       <c r="CD24" s="1">
-        <v>18.602931</v>
+        <v>18.602931000000002</v>
       </c>
       <c r="CE24" s="1">
-        <v>1823.200000</v>
+        <v>1823.2</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1389.200000</v>
+        <v>-1389.2</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>66796.638878</v>
+        <v>66796.638877999998</v>
       </c>
       <c r="B25" s="1">
-        <v>18.554622</v>
+        <v>18.554621999999998</v>
       </c>
       <c r="C25" s="1">
-        <v>898.393000</v>
+        <v>898.39300000000003</v>
       </c>
       <c r="D25" s="1">
-        <v>-202.937000</v>
+        <v>-202.93700000000001</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>66807.070735</v>
+        <v>66807.070735000001</v>
       </c>
       <c r="G25" s="1">
-        <v>18.557520</v>
+        <v>18.55752</v>
       </c>
       <c r="H25" s="1">
-        <v>917.117000</v>
+        <v>917.11699999999996</v>
       </c>
       <c r="I25" s="1">
-        <v>-172.079000</v>
+        <v>-172.07900000000001</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>66817.956939</v>
+        <v>66817.956938999996</v>
       </c>
       <c r="L25" s="1">
         <v>18.560544</v>
       </c>
       <c r="M25" s="1">
-        <v>941.319000</v>
+        <v>941.31899999999996</v>
       </c>
       <c r="N25" s="1">
-        <v>-122.218000</v>
+        <v>-122.218</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>66828.516254</v>
+        <v>66828.516254000002</v>
       </c>
       <c r="Q25" s="1">
-        <v>18.563477</v>
+        <v>18.563476999999999</v>
       </c>
       <c r="R25" s="1">
-        <v>948.378000</v>
+        <v>948.37800000000004</v>
       </c>
       <c r="S25" s="1">
-        <v>-105.487000</v>
+        <v>-105.48699999999999</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>66838.647014</v>
+        <v>66838.647014000002</v>
       </c>
       <c r="V25" s="1">
         <v>18.566291</v>
       </c>
       <c r="W25" s="1">
-        <v>955.215000</v>
+        <v>955.21500000000003</v>
       </c>
       <c r="X25" s="1">
-        <v>-89.948500</v>
+        <v>-89.948499999999996</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>66849.181048</v>
+        <v>66849.181047999999</v>
       </c>
       <c r="AA25" s="1">
-        <v>18.569217</v>
+        <v>18.569216999999998</v>
       </c>
       <c r="AB25" s="1">
-        <v>962.473000</v>
+        <v>962.47299999999996</v>
       </c>
       <c r="AC25" s="1">
-        <v>-77.808800</v>
+        <v>-77.808800000000005</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>66859.903067</v>
+        <v>66859.903067000007</v>
       </c>
       <c r="AF25" s="1">
-        <v>18.572195</v>
+        <v>18.572195000000001</v>
       </c>
       <c r="AG25" s="1">
-        <v>966.433000</v>
+        <v>966.43299999999999</v>
       </c>
       <c r="AH25" s="1">
-        <v>-74.577400</v>
+        <v>-74.577399999999997</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>66870.793228</v>
+        <v>66870.793227999995</v>
       </c>
       <c r="AK25" s="1">
-        <v>18.575220</v>
+        <v>18.575220000000002</v>
       </c>
       <c r="AL25" s="1">
-        <v>973.943000</v>
+        <v>973.94299999999998</v>
       </c>
       <c r="AM25" s="1">
-        <v>-79.342800</v>
+        <v>-79.342799999999997</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>66881.696320</v>
+        <v>66881.696320000003</v>
       </c>
       <c r="AP25" s="1">
         <v>18.578249</v>
       </c>
       <c r="AQ25" s="1">
-        <v>982.158000</v>
+        <v>982.15800000000002</v>
       </c>
       <c r="AR25" s="1">
-        <v>-90.808500</v>
+        <v>-90.808499999999995</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>66892.936284</v>
+        <v>66892.936283999996</v>
       </c>
       <c r="AU25" s="1">
-        <v>18.581371</v>
+        <v>18.581371000000001</v>
       </c>
       <c r="AV25" s="1">
-        <v>992.008000</v>
+        <v>992.00800000000004</v>
       </c>
       <c r="AW25" s="1">
-        <v>-108.336000</v>
+        <v>-108.336</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>66903.901937</v>
+        <v>66903.901937000002</v>
       </c>
       <c r="AZ25" s="1">
-        <v>18.584417</v>
+        <v>18.584416999999998</v>
       </c>
       <c r="BA25" s="1">
-        <v>1000.250000</v>
+        <v>1000.25</v>
       </c>
       <c r="BB25" s="1">
-        <v>-123.850000</v>
+        <v>-123.85</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>66914.560211</v>
+        <v>66914.560211000004</v>
       </c>
       <c r="BE25" s="1">
-        <v>18.587378</v>
+        <v>18.587378000000001</v>
       </c>
       <c r="BF25" s="1">
-        <v>1038.920000</v>
+        <v>1038.92</v>
       </c>
       <c r="BG25" s="1">
-        <v>-195.279000</v>
+        <v>-195.279</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>66925.290163</v>
+        <v>66925.290162999998</v>
       </c>
       <c r="BJ25" s="1">
-        <v>18.590358</v>
+        <v>18.590357999999998</v>
       </c>
       <c r="BK25" s="1">
-        <v>1105.970000</v>
+        <v>1105.97</v>
       </c>
       <c r="BL25" s="1">
-        <v>-310.666000</v>
+        <v>-310.666</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>66936.406006</v>
+        <v>66936.406006000005</v>
       </c>
       <c r="BO25" s="1">
         <v>18.593446</v>
       </c>
       <c r="BP25" s="1">
-        <v>1214.790000</v>
+        <v>1214.79</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-491.194000</v>
+        <v>-491.19400000000002</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>66947.035270</v>
+        <v>66947.035269999993</v>
       </c>
       <c r="BT25" s="1">
-        <v>18.596399</v>
+        <v>18.596399000000002</v>
       </c>
       <c r="BU25" s="1">
-        <v>1336.350000</v>
+        <v>1336.35</v>
       </c>
       <c r="BV25" s="1">
-        <v>-688.097000</v>
+        <v>-688.09699999999998</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>66957.899145</v>
+        <v>66957.899145000003</v>
       </c>
       <c r="BY25" s="1">
-        <v>18.599416</v>
+        <v>18.599416000000002</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1471.810000</v>
+        <v>1471.81</v>
       </c>
       <c r="CA25" s="1">
-        <v>-896.398000</v>
+        <v>-896.39800000000002</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>66971.065480</v>
+        <v>66971.065480000005</v>
       </c>
       <c r="CD25" s="1">
-        <v>18.603074</v>
+        <v>18.603073999999999</v>
       </c>
       <c r="CE25" s="1">
-        <v>1822.250000</v>
+        <v>1822.25</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1389.990000</v>
+        <v>-1389.99</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>66796.983068</v>
+        <v>66796.983068000001</v>
       </c>
       <c r="B26" s="1">
-        <v>18.554718</v>
+        <v>18.554718000000001</v>
       </c>
       <c r="C26" s="1">
-        <v>898.409000</v>
+        <v>898.40899999999999</v>
       </c>
       <c r="D26" s="1">
-        <v>-203.002000</v>
+        <v>-203.00200000000001</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>66807.759168</v>
+        <v>66807.759168000004</v>
       </c>
       <c r="G26" s="1">
-        <v>18.557711</v>
+        <v>18.557711000000001</v>
       </c>
       <c r="H26" s="1">
-        <v>916.883000</v>
+        <v>916.88300000000004</v>
       </c>
       <c r="I26" s="1">
-        <v>-171.527000</v>
+        <v>-171.52699999999999</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>66818.283297</v>
+        <v>66818.283297000002</v>
       </c>
       <c r="L26" s="1">
         <v>18.560634</v>
       </c>
       <c r="M26" s="1">
-        <v>941.477000</v>
+        <v>941.47699999999998</v>
       </c>
       <c r="N26" s="1">
-        <v>-122.119000</v>
+        <v>-122.119</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>66828.864419</v>
+        <v>66828.864419000005</v>
       </c>
       <c r="Q26" s="1">
-        <v>18.563573</v>
+        <v>18.563573000000002</v>
       </c>
       <c r="R26" s="1">
-        <v>948.395000</v>
+        <v>948.39499999999998</v>
       </c>
       <c r="S26" s="1">
-        <v>-105.543000</v>
+        <v>-105.54300000000001</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>66838.991237</v>
+        <v>66838.991236999995</v>
       </c>
       <c r="V26" s="1">
-        <v>18.566386</v>
+        <v>18.566386000000001</v>
       </c>
       <c r="W26" s="1">
-        <v>955.215000</v>
+        <v>955.21500000000003</v>
       </c>
       <c r="X26" s="1">
-        <v>-89.991900</v>
+        <v>-89.991900000000001</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>66849.532215</v>
+        <v>66849.532214999999</v>
       </c>
       <c r="AA26" s="1">
         <v>18.569315</v>
       </c>
       <c r="AB26" s="1">
-        <v>962.422000</v>
+        <v>962.42200000000003</v>
       </c>
       <c r="AC26" s="1">
-        <v>-77.769400</v>
+        <v>-77.769400000000005</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>66860.553817</v>
+        <v>66860.553817000007</v>
       </c>
       <c r="AF26" s="1">
-        <v>18.572376</v>
+        <v>18.572375999999998</v>
       </c>
       <c r="AG26" s="1">
-        <v>966.452000</v>
+        <v>966.452</v>
       </c>
       <c r="AH26" s="1">
-        <v>-74.483400</v>
+        <v>-74.483400000000003</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>66871.158780</v>
+        <v>66871.158779999998</v>
       </c>
       <c r="AK26" s="1">
         <v>18.575322</v>
       </c>
       <c r="AL26" s="1">
-        <v>973.963000</v>
+        <v>973.96299999999997</v>
       </c>
       <c r="AM26" s="1">
-        <v>-79.333100</v>
+        <v>-79.333100000000002</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>66882.119869</v>
+        <v>66882.119869000002</v>
       </c>
       <c r="AP26" s="1">
         <v>18.578367</v>
       </c>
       <c r="AQ26" s="1">
-        <v>982.149000</v>
+        <v>982.149</v>
       </c>
       <c r="AR26" s="1">
-        <v>-90.799100</v>
+        <v>-90.799099999999996</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>66893.299726</v>
+        <v>66893.299725999997</v>
       </c>
       <c r="AU26" s="1">
-        <v>18.581472</v>
+        <v>18.581472000000002</v>
       </c>
       <c r="AV26" s="1">
-        <v>992.027000</v>
+        <v>992.02700000000004</v>
       </c>
       <c r="AW26" s="1">
-        <v>-108.340000</v>
+        <v>-108.34</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>66904.256815</v>
+        <v>66904.256815000001</v>
       </c>
       <c r="AZ26" s="1">
-        <v>18.584516</v>
+        <v>18.584516000000001</v>
       </c>
       <c r="BA26" s="1">
-        <v>1000.260000</v>
+        <v>1000.26</v>
       </c>
       <c r="BB26" s="1">
-        <v>-123.836000</v>
+        <v>-123.836</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>66914.921820</v>
+        <v>66914.921820000003</v>
       </c>
       <c r="BE26" s="1">
-        <v>18.587478</v>
+        <v>18.587478000000001</v>
       </c>
       <c r="BF26" s="1">
-        <v>1038.930000</v>
+        <v>1038.93</v>
       </c>
       <c r="BG26" s="1">
-        <v>-195.277000</v>
+        <v>-195.27699999999999</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>66925.716722</v>
+        <v>66925.716721999997</v>
       </c>
       <c r="BJ26" s="1">
         <v>18.590477</v>
       </c>
       <c r="BK26" s="1">
-        <v>1105.940000</v>
+        <v>1105.94</v>
       </c>
       <c r="BL26" s="1">
-        <v>-310.718000</v>
+        <v>-310.71800000000002</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>66936.827639</v>
+        <v>66936.827638999996</v>
       </c>
       <c r="BO26" s="1">
         <v>18.593563</v>
       </c>
       <c r="BP26" s="1">
-        <v>1214.780000</v>
+        <v>1214.78</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-491.199000</v>
+        <v>-491.19900000000001</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>66947.459846</v>
+        <v>66947.459845999998</v>
       </c>
       <c r="BT26" s="1">
-        <v>18.596517</v>
+        <v>18.596516999999999</v>
       </c>
       <c r="BU26" s="1">
-        <v>1336.490000</v>
+        <v>1336.49</v>
       </c>
       <c r="BV26" s="1">
-        <v>-688.137000</v>
+        <v>-688.13699999999994</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>66958.320744</v>
+        <v>66958.320743999997</v>
       </c>
       <c r="BY26" s="1">
-        <v>18.599534</v>
+        <v>18.599533999999998</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1471.920000</v>
+        <v>1471.92</v>
       </c>
       <c r="CA26" s="1">
-        <v>-896.368000</v>
+        <v>-896.36800000000005</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>66971.582279</v>
+        <v>66971.582278999995</v>
       </c>
       <c r="CD26" s="1">
-        <v>18.603217</v>
+        <v>18.603217000000001</v>
       </c>
       <c r="CE26" s="1">
-        <v>1822.880000</v>
+        <v>1822.88</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1390.860000</v>
+        <v>-1390.86</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>